--- a/data/hotels_by_city/Dallas/Dallas_shard_540.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_540.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,909 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r562243871-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>56280</t>
+  </si>
+  <si>
+    <t>241652</t>
+  </si>
+  <si>
+    <t>562243871</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>It was pretty good</t>
+  </si>
+  <si>
+    <t>It was what I was expecting. The room was nice and served as a good place to crash. I wasn't in the room much, but it felt cozy and kinda homely.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r554292384-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>554292384</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r532652677-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>532652677</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Great location, not so great hotel</t>
+  </si>
+  <si>
+    <t>I don't mind budget hotels but this was very low end. The continental breakfast was so skimpy, I just skipped it after the first day. And there is only a bar of soap for amenities. Come on, provide free shampoo; that shouldn't be an extra.  The fact that we needed a key to get into the front door makes me believe the area isn't very safe although we had no problems with that.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r491634299-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>491634299</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r486964859-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>486964859</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r483038112-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>483038112</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r478097769-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>478097769</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>No sheet</t>
+  </si>
+  <si>
+    <t>Worst hotel no flat sheet on the bed. Rude front desk clerk said if I don't like it I can leave. DONT STAY HERE. All you have to cover with is a nasty polyester comforter that lord only knows when it was washed last. If you stay being a black light!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Worst hotel no flat sheet on the bed. Rude front desk clerk said if I don't like it I can leave. DONT STAY HERE. All you have to cover with is a nasty polyester comforter that lord only knows when it was washed last. If you stay being a black light!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r477376656-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>477376656</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Why?</t>
+  </si>
+  <si>
+    <t>This was one of my worst stays at Microtel's. It was mainly check in, this middle aged foreign man came to the counter from watching tv with 2 other men. The main problem is he insisted I fill out a registration slip. I asked if my information was on the reservation he said yes but I must have the form filled out. He did not enter any information but sure printed out a bill with my information on it to have me sign. Add to that they take a copy of your ID card and is available to any body, he showed me another persons registration slip and copy of the ID to demonstrate why the registration slip was needed.
+The room was below average for Microtel, it was clean and slightly stocked with towels and other linen but few amenities( shampoo and bar soap only). I had a queen suite and it had a microwave and Frig but no coffee maker. The bed was comfortable and had a good night sleep. The a/c worked very well maybe to well awoke to a very cold room. One mystery I question but did not question the staff. This is supposed to be a 100% non-smoking motel, much to my disappointment but there was an clean ashtray on the bedside table in my room!
+Check out, I just wanted to leave so check out was fast after the lady finished up cleaning...This was one of my worst stays at Microtel's. It was mainly check in, this middle aged foreign man came to the counter from watching tv with 2 other men. The main problem is he insisted I fill out a registration slip. I asked if my information was on the reservation he said yes but I must have the form filled out. He did not enter any information but sure printed out a bill with my information on it to have me sign. Add to that they take a copy of your ID card and is available to any body, he showed me another persons registration slip and copy of the ID to demonstrate why the registration slip was needed.The room was below average for Microtel, it was clean and slightly stocked with towels and other linen but few amenities( shampoo and bar soap only). I had a queen suite and it had a microwave and Frig but no coffee maker. The bed was comfortable and had a good night sleep. The a/c worked very well maybe to well awoke to a very cold room. One mystery I question but did not question the staff. This is supposed to be a 100% non-smoking motel, much to my disappointment but there was an clean ashtray on the bedside table in my room!Check out, I just wanted to leave so check out was fast after the lady finished up cleaning part of the breakfast area.I can honestly Not recommend this motel due to the ID theft possibility that is practiced here and is this a truly 100% non-smoking!MoreShow less</t>
+  </si>
+  <si>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2017</t>
+  </si>
+  <si>
+    <t>This was one of my worst stays at Microtel's. It was mainly check in, this middle aged foreign man came to the counter from watching tv with 2 other men. The main problem is he insisted I fill out a registration slip. I asked if my information was on the reservation he said yes but I must have the form filled out. He did not enter any information but sure printed out a bill with my information on it to have me sign. Add to that they take a copy of your ID card and is available to any body, he showed me another persons registration slip and copy of the ID to demonstrate why the registration slip was needed.
+The room was below average for Microtel, it was clean and slightly stocked with towels and other linen but few amenities( shampoo and bar soap only). I had a queen suite and it had a microwave and Frig but no coffee maker. The bed was comfortable and had a good night sleep. The a/c worked very well maybe to well awoke to a very cold room. One mystery I question but did not question the staff. This is supposed to be a 100% non-smoking motel, much to my disappointment but there was an clean ashtray on the bedside table in my room!
+Check out, I just wanted to leave so check out was fast after the lady finished up cleaning...This was one of my worst stays at Microtel's. It was mainly check in, this middle aged foreign man came to the counter from watching tv with 2 other men. The main problem is he insisted I fill out a registration slip. I asked if my information was on the reservation he said yes but I must have the form filled out. He did not enter any information but sure printed out a bill with my information on it to have me sign. Add to that they take a copy of your ID card and is available to any body, he showed me another persons registration slip and copy of the ID to demonstrate why the registration slip was needed.The room was below average for Microtel, it was clean and slightly stocked with towels and other linen but few amenities( shampoo and bar soap only). I had a queen suite and it had a microwave and Frig but no coffee maker. The bed was comfortable and had a good night sleep. The a/c worked very well maybe to well awoke to a very cold room. One mystery I question but did not question the staff. This is supposed to be a 100% non-smoking motel, much to my disappointment but there was an clean ashtray on the bedside table in my room!Check out, I just wanted to leave so check out was fast after the lady finished up cleaning part of the breakfast area.I can honestly Not recommend this motel due to the ID theft possibility that is practiced here and is this a truly 100% non-smoking!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r468609315-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>468609315</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>The room had ROACHES badWe told the front desk they said...</t>
+  </si>
+  <si>
+    <t>The room had ROACHES badWe told the front desk they said we have no other rooms, they said sorry we will spray next week.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r437630940-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>437630940</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Last Resort</t>
+  </si>
+  <si>
+    <t>Only choose this place as a last resort! The check-in guy immediately yelled that "you made reservation for just one person!" He didn't bother to ask if my friend who was with us would be staying (she was just helping to bring in some luggage). After clarifying that situation, we move on to the room. The hallways, the room, the bathroom were very dated. The facility smelled of cigarette smoke from the check-in desk to the room (faint smell of cigarette in the non-smoking room). If you want extra towels, you have to bring your used one to the front desk for an exchange. This place reminded me of a dormitory or half-way house...not the best neighborhood. The free breakfast looked to be nothing more than packaged muffins. As far as the 'fitness center' that is advertised on Microtel website, the front desk person said that he was a yoga instructor...that is the extent of the fitness center. Also, the internet never worked. Definitely will NOT choose this place again or recommend it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Only choose this place as a last resort! The check-in guy immediately yelled that "you made reservation for just one person!" He didn't bother to ask if my friend who was with us would be staying (she was just helping to bring in some luggage). After clarifying that situation, we move on to the room. The hallways, the room, the bathroom were very dated. The facility smelled of cigarette smoke from the check-in desk to the room (faint smell of cigarette in the non-smoking room). If you want extra towels, you have to bring your used one to the front desk for an exchange. This place reminded me of a dormitory or half-way house...not the best neighborhood. The free breakfast looked to be nothing more than packaged muffins. As far as the 'fitness center' that is advertised on Microtel website, the front desk person said that he was a yoga instructor...that is the extent of the fitness center. Also, the internet never worked. Definitely will NOT choose this place again or recommend it to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r435130663-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>435130663</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Horrible Experience</t>
+  </si>
+  <si>
+    <t>I originally wanted to give them 3 stars, but after my last night of my reservation, didn't want to give them even one star. The room next to us was partying until around 2am. We turned our tv on in our room and it tuned them out enough to allow us to sleep. Around 4am we get MULTIPLE phone calls from the front desk and they come knocking on the door. My boyfriend answered and they ask us how many people were in the room, but then he realizes he made a mistake and was really supposed to be asking the room next to us (which was the party room) and apologizes. The next morning on checkout, we mentioned this to the person on duty and asked for a receipt, which he said he couldn't even provide (who does that?!)I have contacted Corporate and they have given me more assistance than the manager. I wish I could say more positive things about this place, but I don't feel like customer service is this hotel's priority. This is one of those types of places I would only suggest for a one night stay, only if you needed a place to lay your head and nothing else.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I originally wanted to give them 3 stars, but after my last night of my reservation, didn't want to give them even one star. The room next to us was partying until around 2am. We turned our tv on in our room and it tuned them out enough to allow us to sleep. Around 4am we get MULTIPLE phone calls from the front desk and they come knocking on the door. My boyfriend answered and they ask us how many people were in the room, but then he realizes he made a mistake and was really supposed to be asking the room next to us (which was the party room) and apologizes. The next morning on checkout, we mentioned this to the person on duty and asked for a receipt, which he said he couldn't even provide (who does that?!)I have contacted Corporate and they have given me more assistance than the manager. I wish I could say more positive things about this place, but I don't feel like customer service is this hotel's priority. This is one of those types of places I would only suggest for a one night stay, only if you needed a place to lay your head and nothing else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r420564870-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>420564870</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>The towels were awful. There was no blow dryer. The room...</t>
+  </si>
+  <si>
+    <t>The towels were awful. There was no blow dryer. The room smelled like smoke. After my first night they did move us to another room.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>The towels were awful. There was no blow dryer. The room smelled like smoke. After my first night they did move us to another room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r408069809-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>408069809</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r398408614-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>398408614</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Don't bother</t>
+  </si>
+  <si>
+    <t>I won't be staying here again.  You walk in and you're hit with the smell of curry cooking!The pitiful excuse for breakfast was the last straw. There was barely anything available. Not worth the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>veena m, Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2016</t>
+  </si>
+  <si>
+    <t>I won't be staying here again.  You walk in and you're hit with the smell of curry cooking!The pitiful excuse for breakfast was the last straw. There was barely anything available. Not worth the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r382500498-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>382500498</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r348476823-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>348476823</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Location and updates</t>
+  </si>
+  <si>
+    <t>I will not stay in this hotel again.   I found this based on a search and yes it was close to my destination BUT I had rather drive an hour than stay in this area again.  The hotel and rooms both need updates, the hall is dark and the carpet stinks.  The positive was that the lady who checked me in was VERY nice and helpful but the man who replaced her for the night shift was not.  I will rate the service average ONLY because the lady was so nice. I will also rate the property appearance poor because the web pictures are not at all like what you get!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I will not stay in this hotel again.   I found this based on a search and yes it was close to my destination BUT I had rather drive an hour than stay in this area again.  The hotel and rooms both need updates, the hall is dark and the carpet stinks.  The positive was that the lady who checked me in was VERY nice and helpful but the man who replaced her for the night shift was not.  I will rate the service average ONLY because the lady was so nice. I will also rate the property appearance poor because the web pictures are not at all like what you get!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r342180036-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>342180036</t>
+  </si>
+  <si>
+    <t>01/23/2016</t>
+  </si>
+  <si>
+    <t>HORRIBLE!!!!!</t>
+  </si>
+  <si>
+    <t>When we walked in the lobby, I knew it was going to be bad! SMELLED bad.....was not looking for frills, but must have clean!!!!!I thought because it was in the wyndam group of hotels, it would be ok......this particular one was in mesquite, Texas, and again I say Terrible!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>veena m, General Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded January 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2016</t>
+  </si>
+  <si>
+    <t>When we walked in the lobby, I knew it was going to be bad! SMELLED bad.....was not looking for frills, but must have clean!!!!!I thought because it was in the wyndam group of hotels, it would be ok......this particular one was in mesquite, Texas, and again I say Terrible!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r332765754-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>332765754</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r327253865-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>327253865</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>On the road</t>
+  </si>
+  <si>
+    <t>We stayed overnight on a trip to another city.  The desk service was very good and helpful.  Did not have any noise from the outside or the inside.  The breakfast was skimpy on choice but it was adequate in the amount.  Room and bathroom were clean and the heating/cooling unit worked very well.  We would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>veena m, Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>We stayed overnight on a trip to another city.  The desk service was very good and helpful.  Did not have any noise from the outside or the inside.  The breakfast was skimpy on choice but it was adequate in the amount.  Room and bathroom were clean and the heating/cooling unit worked very well.  We would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r323816094-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>323816094</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r320518229-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>320518229</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>veena m, Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r266916463-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>266916463</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>The price advertised was not the price charged.  The rooms wasn't very clean.  The linens were old and worn.  The front desk personnel were not professional at all.  The breakfast consisted of coffee and cereal.  Wyndham should be ashamed to have their name associated with such.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r261641562-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>261641562</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>veena m, Front desk at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r250109845-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>250109845</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>DISRESPECTED CUSTOMER</t>
+  </si>
+  <si>
+    <t>I am a civil engineer and was a guest at this facility from January 16 to January 18-2015. As I was there for a wedding in Texas I did not use the services of the facility save the breakfast which I had very early each morning. I was the first to be in the breakfast lobby each morning and used the waffle maker on each of the three mornings. On the last morning- January 18-2015 I went to the lobby at 6:00 am with my luggage and as usual poured the pancake mix into the waffle maker. I then left the area to place my luggage into my vehicle parked just outside the front door. I returned to the lobby immediately and removed the completed waffle and placed another into the waffle maker and left to retrieve another luggage from my room at Room 224. I again immediately returned to the lobby to commence my breakfast when I was accosted by the most vile, vitriolic and disrespetful tirade and accusation of being stupid and reckless and posing a fire-hazard to the premises. I inquired as to the reason for the Manager's anger and comments to which he told me that I twice posed a threat to his facility by leaving the waffle-maker unattended. I explained to him that I was accustomed to using the machine and that I know that the automatic timer would cut-off the equipment after the countdown...I am a civil engineer and was a guest at this facility from January 16 to January 18-2015. As I was there for a wedding in Texas I did not use the services of the facility save the breakfast which I had very early each morning. I was the first to be in the breakfast lobby each morning and used the waffle maker on each of the three mornings. On the last morning- January 18-2015 I went to the lobby at 6:00 am with my luggage and as usual poured the pancake mix into the waffle maker. I then left the area to place my luggage into my vehicle parked just outside the front door. I returned to the lobby immediately and removed the completed waffle and placed another into the waffle maker and left to retrieve another luggage from my room at Room 224. I again immediately returned to the lobby to commence my breakfast when I was accosted by the most vile, vitriolic and disrespetful tirade and accusation of being stupid and reckless and posing a fire-hazard to the premises. I inquired as to the reason for the Manager's anger and comments to which he told me that I twice posed a threat to his facility by leaving the waffle-maker unattended. I explained to him that I was accustomed to using the machine and that I know that the automatic timer would cut-off the equipment after the countdown was completed as it had done before. None-the-less I profusely apologized for causing his anxiety and asked to be forgiven. The Manager continued his tirade and disrespect by not accepting my apologies and continued accusing me of being reckless. I apologized once again , yet he continued his disrespectful and vitriolic attack. This should be all picked up on the camera in the lobby. He spoke to be with disdain reminiscent of the condescending tone of the 1960 south when Black people were vilified and disrespected - and this on the eve of Dr. Martin Luther King's anniversary. His behavior was unacceptable. He continued very angry until I left the facility. I respectfully bade him goodday and left after my wife and I had breakfast at about 6:45 amMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I am a civil engineer and was a guest at this facility from January 16 to January 18-2015. As I was there for a wedding in Texas I did not use the services of the facility save the breakfast which I had very early each morning. I was the first to be in the breakfast lobby each morning and used the waffle maker on each of the three mornings. On the last morning- January 18-2015 I went to the lobby at 6:00 am with my luggage and as usual poured the pancake mix into the waffle maker. I then left the area to place my luggage into my vehicle parked just outside the front door. I returned to the lobby immediately and removed the completed waffle and placed another into the waffle maker and left to retrieve another luggage from my room at Room 224. I again immediately returned to the lobby to commence my breakfast when I was accosted by the most vile, vitriolic and disrespetful tirade and accusation of being stupid and reckless and posing a fire-hazard to the premises. I inquired as to the reason for the Manager's anger and comments to which he told me that I twice posed a threat to his facility by leaving the waffle-maker unattended. I explained to him that I was accustomed to using the machine and that I know that the automatic timer would cut-off the equipment after the countdown...I am a civil engineer and was a guest at this facility from January 16 to January 18-2015. As I was there for a wedding in Texas I did not use the services of the facility save the breakfast which I had very early each morning. I was the first to be in the breakfast lobby each morning and used the waffle maker on each of the three mornings. On the last morning- January 18-2015 I went to the lobby at 6:00 am with my luggage and as usual poured the pancake mix into the waffle maker. I then left the area to place my luggage into my vehicle parked just outside the front door. I returned to the lobby immediately and removed the completed waffle and placed another into the waffle maker and left to retrieve another luggage from my room at Room 224. I again immediately returned to the lobby to commence my breakfast when I was accosted by the most vile, vitriolic and disrespetful tirade and accusation of being stupid and reckless and posing a fire-hazard to the premises. I inquired as to the reason for the Manager's anger and comments to which he told me that I twice posed a threat to his facility by leaving the waffle-maker unattended. I explained to him that I was accustomed to using the machine and that I know that the automatic timer would cut-off the equipment after the countdown was completed as it had done before. None-the-less I profusely apologized for causing his anxiety and asked to be forgiven. The Manager continued his tirade and disrespect by not accepting my apologies and continued accusing me of being reckless. I apologized once again , yet he continued his disrespectful and vitriolic attack. This should be all picked up on the camera in the lobby. He spoke to be with disdain reminiscent of the condescending tone of the 1960 south when Black people were vilified and disrespected - and this on the eve of Dr. Martin Luther King's anniversary. His behavior was unacceptable. He continued very angry until I left the facility. I respectfully bade him goodday and left after my wife and I had breakfast at about 6:45 amMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r237167349-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>237167349</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Your Review      Loved it      I would love to stay again...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Review      Loved it      I would love to stay again My daughter loved the room and so did I ... I'm planning to stay again </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r235641298-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>235641298</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r235610159-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>235610159</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r207754224-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>207754224</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Did not enjoy my stay</t>
+  </si>
+  <si>
+    <t>Upon arriving late, the front entryway was not welcoming. Once given a room we were pointed to go outside around the building the enter through the back door which was suppose to be closer to our room. The room did not look anything like what was advertised online. It was dark, dingy, and super small. The worst thing is that there were baby roaches in the bed, all on the night stand and in the bathroom. I thought it was just one but they kept coming out of nowehere. I called the front desk to request another room and was told there were no more and in the morning once people left I could then receive another room. Needless to say me and my niece did not sleep much at all that night! In the morning the owner I guess came to give us a key to our new room right down the hall, so we switched our luggage over before we left to run errands. That room had no roaches, but I do not see where they get the pictures from online. Upon checking out, we walked out the room headed out, and the owner's wife immediately rushed into our room (im guessing to check to see if we stole anything or damaged something..?). I felt that was very unprofessional. I will never stay there again. Corporate supposedly e-mailed me because I did a complaint while in the roached...Upon arriving late, the front entryway was not welcoming. Once given a room we were pointed to go outside around the building the enter through the back door which was suppose to be closer to our room. The room did not look anything like what was advertised online. It was dark, dingy, and super small. The worst thing is that there were baby roaches in the bed, all on the night stand and in the bathroom. I thought it was just one but they kept coming out of nowehere. I called the front desk to request another room and was told there were no more and in the morning once people left I could then receive another room. Needless to say me and my niece did not sleep much at all that night! In the morning the owner I guess came to give us a key to our new room right down the hall, so we switched our luggage over before we left to run errands. That room had no roaches, but I do not see where they get the pictures from online. Upon checking out, we walked out the room headed out, and the owner's wife immediately rushed into our room (im guessing to check to see if we stole anything or damaged something..?). I felt that was very unprofessional. I will never stay there again. Corporate supposedly e-mailed me because I did a complaint while in the roached infested room, and I was suppose to receive a phone call to follow up with the situation. I have not heard from them yet, and doubt I will.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>veena m, Guest Relations Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Upon arriving late, the front entryway was not welcoming. Once given a room we were pointed to go outside around the building the enter through the back door which was suppose to be closer to our room. The room did not look anything like what was advertised online. It was dark, dingy, and super small. The worst thing is that there were baby roaches in the bed, all on the night stand and in the bathroom. I thought it was just one but they kept coming out of nowehere. I called the front desk to request another room and was told there were no more and in the morning once people left I could then receive another room. Needless to say me and my niece did not sleep much at all that night! In the morning the owner I guess came to give us a key to our new room right down the hall, so we switched our luggage over before we left to run errands. That room had no roaches, but I do not see where they get the pictures from online. Upon checking out, we walked out the room headed out, and the owner's wife immediately rushed into our room (im guessing to check to see if we stole anything or damaged something..?). I felt that was very unprofessional. I will never stay there again. Corporate supposedly e-mailed me because I did a complaint while in the roached...Upon arriving late, the front entryway was not welcoming. Once given a room we were pointed to go outside around the building the enter through the back door which was suppose to be closer to our room. The room did not look anything like what was advertised online. It was dark, dingy, and super small. The worst thing is that there were baby roaches in the bed, all on the night stand and in the bathroom. I thought it was just one but they kept coming out of nowehere. I called the front desk to request another room and was told there were no more and in the morning once people left I could then receive another room. Needless to say me and my niece did not sleep much at all that night! In the morning the owner I guess came to give us a key to our new room right down the hall, so we switched our luggage over before we left to run errands. That room had no roaches, but I do not see where they get the pictures from online. Upon checking out, we walked out the room headed out, and the owner's wife immediately rushed into our room (im guessing to check to see if we stole anything or damaged something..?). I felt that was very unprofessional. I will never stay there again. Corporate supposedly e-mailed me because I did a complaint while in the roached infested room, and I was suppose to receive a phone call to follow up with the situation. I have not heard from them yet, and doubt I will.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r205871541-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>205871541</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>This hotel never has handicapped rooms available never. I think the staff uses them as living quarters isn't fair.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's okay but I've had problems with no handicapped rooms ever. AC doesn't work right. Because I have a Service Dog I get broken down rooms. My Service Dog is cleaner than some children. The staff is nice but it is a forced nice. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r205102996-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>205102996</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay!</t>
+  </si>
+  <si>
+    <t>The staff were courteous and eager to take of everything that came up.  The refrigerator and sink came in very handy.  The foldout bed also came in handy when unexpected guests.  I'll definitely stay here again when I'm in town.  :-)</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r186568865-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>186568865</t>
+  </si>
+  <si>
+    <t>12/02/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r184410322-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>184410322</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r183668218-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>183668218</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r178932880-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>178932880</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r178756918-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>178756918</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>GOOD PLACE TO STAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a convenient place to stay. It was a quiet location The rooms were clean and comfortable. The staff was friendly. We could access all the places we needed to be without getting back on major highways.  I wish they would have offered a few more things for their continental breakfast. All in all it was a good experience and I would recommend it to others    </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r174213413-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>174213413</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r167724521-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>167724521</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Huge bugs in the bathroom</t>
+  </si>
+  <si>
+    <t>There were 2 huge bugs (roaches?) in the bathroom.  I called the front desk and they removed them. I had prepaid for this room or I never would have stayed. I would never stay there again!!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r167544374-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>167544374</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>I love Microtel</t>
+  </si>
+  <si>
+    <t>I believe Microtel is the best affordable, yet quality, that you can get.There service is great as well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r166111031-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>166111031</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r163305996-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>163305996</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r162020870-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>162020870</t>
+  </si>
+  <si>
+    <t>05/27/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r161461398-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>161461398</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r153965802-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>153965802</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r151922226-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>151922226</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>my triip</t>
+  </si>
+  <si>
+    <t>Most of the visit was very positive. room was clean and quiet. Staff was very accommodating; even remembering me on my return visit. Could add some protein and fresh fruit to the Continental breakfast; apples, bananas, oranges...perhaps some hard-boiled eggs...carb selection was superb. places to eat are 3-4 miles away. It's worth going away to eat. "Take out" menus are old and need to be updated to reflect current prices; and remove that pizza place, the pizzas are awful!</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r147324143-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>147324143</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r144975519-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>144975519</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r143167602-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>143167602</t>
+  </si>
+  <si>
+    <t>10/18/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r142904541-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>142904541</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r124905734-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>124905734</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Not bad and not great either</t>
+  </si>
+  <si>
+    <t>Rooms were small, bedding was good, bathroom had a stale or moldy smell, I thing it was from shower curtain which did seem cleaned for a while as their was dirty spots on it. Bathroom corner had some dirt. Overall not bad and not great either. Friendliness of staff is OK.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r122322501-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>122322501</t>
+  </si>
+  <si>
+    <t>12/31/2011</t>
+  </si>
+  <si>
+    <t>Rude Owners - Bad Service - Loud People</t>
+  </si>
+  <si>
+    <t>I had been using this Microtel for a couple years now when I am in Dallas dealing with property issues. The hotel had been fine until this last time I stayed in Nov-Dec 2011. They cram all the single bed rooms in one end of the building and are not spread out. The problem with this is there are a lot of out of town workers that stay there and make noise until 3-4am most days as well as leave their TVs on loud all night. You cannot get any sleep there.
+I complained to both the night manager and the morning manager about the noise issues and the morning manager (fat guy) said I do not have to stay there and I can go somewhere else. This is the first time they where rude to me and not the last. I was scheduled to leave on the Fri however my work kept me another couple days and I went on Priceline to add a couple more days. I did not get back to the hotel until about 11pm that night and the fat guy started arguing with me that I did not notify them I was staying that I did not pay for the room. I told him I had made an earlier reservation that day and asked what the issue was. He said I was trying to skip out on paying and I had to pay. I have...I had been using this Microtel for a couple years now when I am in Dallas dealing with property issues. The hotel had been fine until this last time I stayed in Nov-Dec 2011. They cram all the single bed rooms in one end of the building and are not spread out. The problem with this is there are a lot of out of town workers that stay there and make noise until 3-4am most days as well as leave their TVs on loud all night. You cannot get any sleep there.I complained to both the night manager and the morning manager about the noise issues and the morning manager (fat guy) said I do not have to stay there and I can go somewhere else. This is the first time they where rude to me and not the last. I was scheduled to leave on the Fri however my work kept me another couple days and I went on Priceline to add a couple more days. I did not get back to the hotel until about 11pm that night and the fat guy started arguing with me that I did not notify them I was staying that I did not pay for the room. I told him I had made an earlier reservation that day and asked what the issue was. He said I was trying to skip out on paying and I had to pay. I have never had problems with hotels worrying about me skipping out on paying when using Priceline so I payed and stayed another two days. The second day I had to change my schedule again and stay a couple more days and tried to prepay a couple more days and they would not accept it and told me to leave. They said they can refuse service to anybody and called the police. This hotel has lost my business and I will let everybody know that there are better places in the area like the Crossland Extended Stay Hotel up the street. They have small kitchenettes and pretty comfortable for the price. I recommend nobody stay at the Microtel in Mesquite on Sorrento Dr.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I had been using this Microtel for a couple years now when I am in Dallas dealing with property issues. The hotel had been fine until this last time I stayed in Nov-Dec 2011. They cram all the single bed rooms in one end of the building and are not spread out. The problem with this is there are a lot of out of town workers that stay there and make noise until 3-4am most days as well as leave their TVs on loud all night. You cannot get any sleep there.
+I complained to both the night manager and the morning manager about the noise issues and the morning manager (fat guy) said I do not have to stay there and I can go somewhere else. This is the first time they where rude to me and not the last. I was scheduled to leave on the Fri however my work kept me another couple days and I went on Priceline to add a couple more days. I did not get back to the hotel until about 11pm that night and the fat guy started arguing with me that I did not notify them I was staying that I did not pay for the room. I told him I had made an earlier reservation that day and asked what the issue was. He said I was trying to skip out on paying and I had to pay. I have...I had been using this Microtel for a couple years now when I am in Dallas dealing with property issues. The hotel had been fine until this last time I stayed in Nov-Dec 2011. They cram all the single bed rooms in one end of the building and are not spread out. The problem with this is there are a lot of out of town workers that stay there and make noise until 3-4am most days as well as leave their TVs on loud all night. You cannot get any sleep there.I complained to both the night manager and the morning manager about the noise issues and the morning manager (fat guy) said I do not have to stay there and I can go somewhere else. This is the first time they where rude to me and not the last. I was scheduled to leave on the Fri however my work kept me another couple days and I went on Priceline to add a couple more days. I did not get back to the hotel until about 11pm that night and the fat guy started arguing with me that I did not notify them I was staying that I did not pay for the room. I told him I had made an earlier reservation that day and asked what the issue was. He said I was trying to skip out on paying and I had to pay. I have never had problems with hotels worrying about me skipping out on paying when using Priceline so I payed and stayed another two days. The second day I had to change my schedule again and stay a couple more days and tried to prepay a couple more days and they would not accept it and told me to leave. They said they can refuse service to anybody and called the police. This hotel has lost my business and I will let everybody know that there are better places in the area like the Crossland Extended Stay Hotel up the street. They have small kitchenettes and pretty comfortable for the price. I recommend nobody stay at the Microtel in Mesquite on Sorrento Dr.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r117414724-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>117414724</t>
+  </si>
+  <si>
+    <t>08/29/2011</t>
+  </si>
+  <si>
+    <t>Bang for your buck</t>
+  </si>
+  <si>
+    <t>I was a little skeptical, getting such a great deal on a hotel. But, all of my expectations were exceeded at this Microtel. The employees at the front counter were very friendly and helpful. The vending machines worked, the breakfast was stocked nicely (just your usual waffles, muffins, bagels, juice), the rooms were clean (small, but very clean), working tv with tons of channels, cold air conditioning, comfortable bed and spotless bathroom. The neighborhood seemed to be fine, it was close to I-30, but without the noise, and just around the corner from Town East Mall, restaurants, etc. I would stay here again in a minute. Highly recommended for couples or small families who are traveling on a budget, but still care about cleanliness and quality of stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>I was a little skeptical, getting such a great deal on a hotel. But, all of my expectations were exceeded at this Microtel. The employees at the front counter were very friendly and helpful. The vending machines worked, the breakfast was stocked nicely (just your usual waffles, muffins, bagels, juice), the rooms were clean (small, but very clean), working tv with tons of channels, cold air conditioning, comfortable bed and spotless bathroom. The neighborhood seemed to be fine, it was close to I-30, but without the noise, and just around the corner from Town East Mall, restaurants, etc. I would stay here again in a minute. Highly recommended for couples or small families who are traveling on a budget, but still care about cleanliness and quality of stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r66452114-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>66452114</t>
+  </si>
+  <si>
+    <t>06/04/2010</t>
+  </si>
+  <si>
+    <t>Couldn't Be Better</t>
+  </si>
+  <si>
+    <t>My wife and I have been visiting our relatives in Mesquite for 3 weeks each year for five or more years and we always stay at this Mictrotel. For the price it couldn't be better: quiet, very pleasant staff, clean rooms and bathrooms, comfortable beds and an ample included continental breakfast (with waffles, if you wish.) It is not centrally located but right next to a freeway. If you need a reasonably priced place to sleep, this is it.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r36757778-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>36757778</t>
+  </si>
+  <si>
+    <t>08/04/2009</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here!!</t>
+  </si>
+  <si>
+    <t>Not a typical Microtel.  It's an old roach motel with the Microtel name slapped on it!! Such a shame because Microtels are typically very nice.  Old torn, worn carpet and bedding, hard beds.  The desk clerk was extremely rude as well. Best advice: move on down the road, unless you're desperate.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1548,3387 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>126</v>
+      </c>
+      <c r="X13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>162</v>
+      </c>
+      <c r="X18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>175</v>
+      </c>
+      <c r="X20" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>88</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>184</v>
+      </c>
+      <c r="X22" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>196</v>
+      </c>
+      <c r="X24" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" t="s">
+        <v>211</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>210</v>
+      </c>
+      <c r="O27" t="s">
+        <v>88</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>210</v>
+      </c>
+      <c r="O28" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>223</v>
+      </c>
+      <c r="X29" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" t="s">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>211</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>240</v>
+      </c>
+      <c r="O32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>240</v>
+      </c>
+      <c r="O33" t="s">
+        <v>139</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>240</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>248</v>
+      </c>
+      <c r="J35" t="s">
+        <v>249</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>250</v>
+      </c>
+      <c r="O35" t="s">
+        <v>139</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>250</v>
+      </c>
+      <c r="O36" t="s">
+        <v>139</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>259</v>
+      </c>
+      <c r="O37" t="s">
+        <v>88</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>260</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>261</v>
+      </c>
+      <c r="J38" t="s">
+        <v>262</v>
+      </c>
+      <c r="K38" t="s">
+        <v>263</v>
+      </c>
+      <c r="L38" t="s">
+        <v>264</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>265</v>
+      </c>
+      <c r="O38" t="s">
+        <v>88</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>266</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>267</v>
+      </c>
+      <c r="J39" t="s">
+        <v>268</v>
+      </c>
+      <c r="K39" t="s">
+        <v>269</v>
+      </c>
+      <c r="L39" t="s">
+        <v>270</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>265</v>
+      </c>
+      <c r="O39" t="s">
+        <v>139</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>271</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>272</v>
+      </c>
+      <c r="J40" t="s">
+        <v>273</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>274</v>
+      </c>
+      <c r="O40" t="s">
+        <v>139</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>276</v>
+      </c>
+      <c r="J41" t="s">
+        <v>277</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>278</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>279</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>280</v>
+      </c>
+      <c r="J42" t="s">
+        <v>281</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>278</v>
+      </c>
+      <c r="O42" t="s">
+        <v>88</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>283</v>
+      </c>
+      <c r="J43" t="s">
+        <v>284</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>278</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>285</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>286</v>
+      </c>
+      <c r="J44" t="s">
+        <v>287</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>288</v>
+      </c>
+      <c r="O44" t="s">
+        <v>88</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>289</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>290</v>
+      </c>
+      <c r="J45" t="s">
+        <v>291</v>
+      </c>
+      <c r="K45" t="s">
+        <v>292</v>
+      </c>
+      <c r="L45" t="s">
+        <v>293</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>294</v>
+      </c>
+      <c r="O45" t="s">
+        <v>211</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>296</v>
+      </c>
+      <c r="J46" t="s">
+        <v>297</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>298</v>
+      </c>
+      <c r="O46" t="s">
+        <v>88</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>299</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>300</v>
+      </c>
+      <c r="J47" t="s">
+        <v>301</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s">
+        <v>56</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>302</v>
+      </c>
+      <c r="O47" t="s">
+        <v>211</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>303</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>304</v>
+      </c>
+      <c r="J48" t="s">
+        <v>305</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>306</v>
+      </c>
+      <c r="O48" t="s">
+        <v>58</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>307</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>308</v>
+      </c>
+      <c r="J49" t="s">
+        <v>309</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>306</v>
+      </c>
+      <c r="O49" t="s">
+        <v>58</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>310</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>311</v>
+      </c>
+      <c r="J50" t="s">
+        <v>312</v>
+      </c>
+      <c r="K50" t="s">
+        <v>313</v>
+      </c>
+      <c r="L50" t="s">
+        <v>314</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>315</v>
+      </c>
+      <c r="O50" t="s">
+        <v>139</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>316</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>317</v>
+      </c>
+      <c r="J51" t="s">
+        <v>318</v>
+      </c>
+      <c r="K51" t="s">
+        <v>319</v>
+      </c>
+      <c r="L51" t="s">
+        <v>320</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>321</v>
+      </c>
+      <c r="O51" t="s">
+        <v>88</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>323</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>324</v>
+      </c>
+      <c r="J52" t="s">
+        <v>325</v>
+      </c>
+      <c r="K52" t="s">
+        <v>326</v>
+      </c>
+      <c r="L52" t="s">
+        <v>327</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>328</v>
+      </c>
+      <c r="O52" t="s">
+        <v>139</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>330</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>331</v>
+      </c>
+      <c r="J53" t="s">
+        <v>332</v>
+      </c>
+      <c r="K53" t="s">
+        <v>333</v>
+      </c>
+      <c r="L53" t="s">
+        <v>334</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>335</v>
+      </c>
+      <c r="O53" t="s">
+        <v>139</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>336</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>337</v>
+      </c>
+      <c r="J54" t="s">
+        <v>338</v>
+      </c>
+      <c r="K54" t="s">
+        <v>339</v>
+      </c>
+      <c r="L54" t="s">
+        <v>340</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>341</v>
+      </c>
+      <c r="O54" t="s">
+        <v>139</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_540.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_540.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>bean665</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>S751QXMK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r554292384-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Donna W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r532652677-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Peter W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r491634299-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Evelyn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r486964859-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t>Responded May 29, 2017</t>
   </si>
   <si>
+    <t>David L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r483038112-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -267,6 +285,9 @@
     <t>Responded May 11, 2017</t>
   </si>
   <si>
+    <t>Bart W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r478097769-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -292,6 +313,9 @@
   </si>
   <si>
     <t>Worst hotel no flat sheet on the bed. Rude front desk clerk said if I don't like it I can leave. DONT STAY HERE. All you have to cover with is a nasty polyester comforter that lord only knows when it was washed last. If you stay being a black light!!!!More</t>
+  </si>
+  <si>
+    <t>Raymond L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r477376656-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
@@ -322,6 +346,9 @@
 Check out, I just wanted to leave so check out was fast after the lady finished up cleaning...This was one of my worst stays at Microtel's. It was mainly check in, this middle aged foreign man came to the counter from watching tv with 2 other men. The main problem is he insisted I fill out a registration slip. I asked if my information was on the reservation he said yes but I must have the form filled out. He did not enter any information but sure printed out a bill with my information on it to have me sign. Add to that they take a copy of your ID card and is available to any body, he showed me another persons registration slip and copy of the ID to demonstrate why the registration slip was needed.The room was below average for Microtel, it was clean and slightly stocked with towels and other linen but few amenities( shampoo and bar soap only). I had a queen suite and it had a microwave and Frig but no coffee maker. The bed was comfortable and had a good night sleep. The a/c worked very well maybe to well awoke to a very cold room. One mystery I question but did not question the staff. This is supposed to be a 100% non-smoking motel, much to my disappointment but there was an clean ashtray on the bedside table in my room!Check out, I just wanted to leave so check out was fast after the lady finished up cleaning part of the breakfast area.I can honestly Not recommend this motel due to the ID theft possibility that is practiced here and is this a truly 100% non-smoking!More</t>
   </si>
   <si>
+    <t>923jerryt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r468609315-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -340,6 +367,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>261annonymous</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r437630940-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -361,6 +391,9 @@
     <t>Only choose this place as a last resort! The check-in guy immediately yelled that "you made reservation for just one person!" He didn't bother to ask if my friend who was with us would be staying (she was just helping to bring in some luggage). After clarifying that situation, we move on to the room. The hallways, the room, the bathroom were very dated. The facility smelled of cigarette smoke from the check-in desk to the room (faint smell of cigarette in the non-smoking room). If you want extra towels, you have to bring your used one to the front desk for an exchange. This place reminded me of a dormitory or half-way house...not the best neighborhood. The free breakfast looked to be nothing more than packaged muffins. As far as the 'fitness center' that is advertised on Microtel website, the front desk person said that he was a yoga instructor...that is the extent of the fitness center. Also, the internet never worked. Definitely will NOT choose this place again or recommend it to anyone.More</t>
   </si>
   <si>
+    <t>Chrissy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r435130663-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -382,6 +415,9 @@
     <t>I originally wanted to give them 3 stars, but after my last night of my reservation, didn't want to give them even one star. The room next to us was partying until around 2am. We turned our tv on in our room and it tuned them out enough to allow us to sleep. Around 4am we get MULTIPLE phone calls from the front desk and they come knocking on the door. My boyfriend answered and they ask us how many people were in the room, but then he realizes he made a mistake and was really supposed to be asking the room next to us (which was the party room) and apologizes. The next morning on checkout, we mentioned this to the person on duty and asked for a receipt, which he said he couldn't even provide (who does that?!)I have contacted Corporate and they have given me more assistance than the manager. I wish I could say more positive things about this place, but I don't feel like customer service is this hotel's priority. This is one of those types of places I would only suggest for a one night stay, only if you needed a place to lay your head and nothing else.More</t>
   </si>
   <si>
+    <t>O7174S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r420564870-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -409,6 +445,9 @@
     <t>The towels were awful. There was no blow dryer. The room smelled like smoke. After my first night they did move us to another room.More</t>
   </si>
   <si>
+    <t>Richard M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r408069809-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -421,6 +460,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Expressions1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r398408614-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -451,6 +493,9 @@
     <t>I won't be staying here again.  You walk in and you're hit with the smell of curry cooking!The pitiful excuse for breakfast was the last straw. There was barely anything available. Not worth the price.More</t>
   </si>
   <si>
+    <t>cameronf623</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r382500498-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -469,6 +514,9 @@
     <t>Responded June 16, 2016</t>
   </si>
   <si>
+    <t>Sparks S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r348476823-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -490,6 +538,9 @@
     <t>I will not stay in this hotel again.   I found this based on a search and yes it was close to my destination BUT I had rather drive an hour than stay in this area again.  The hotel and rooms both need updates, the hall is dark and the carpet stinks.  The positive was that the lady who checked me in was VERY nice and helpful but the man who replaced her for the night shift was not.  I will rate the service average ONLY because the lady was so nice. I will also rate the property appearance poor because the web pictures are not at all like what you get!More</t>
   </si>
   <si>
+    <t>canderson41955</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r342180036-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -517,6 +568,9 @@
     <t>When we walked in the lobby, I knew it was going to be bad! SMELLED bad.....was not looking for frills, but must have clean!!!!!I thought because it was in the wyndam group of hotels, it would be ok......this particular one was in mesquite, Texas, and again I say Terrible!More</t>
   </si>
   <si>
+    <t>676royb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r332765754-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -529,6 +583,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>richardsJ6088FJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r327253865-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -556,6 +613,9 @@
     <t>We stayed overnight on a trip to another city.  The desk service was very good and helpful.  Did not have any noise from the outside or the inside.  The breakfast was skimpy on choice but it was adequate in the amount.  Room and bathroom were clean and the heating/cooling unit worked very well.  We would stay there again.More</t>
   </si>
   <si>
+    <t>887hazell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r323816094-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -565,6 +625,9 @@
     <t>11/02/2015</t>
   </si>
   <si>
+    <t>502pamelap</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r320518229-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -580,6 +643,9 @@
     <t>Responded October 22, 2015</t>
   </si>
   <si>
+    <t>Dorothy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r266916463-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -598,6 +664,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Debbie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r261641562-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -616,6 +685,9 @@
     <t>Responded March 26, 2015</t>
   </si>
   <si>
+    <t>43winstonw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r250109845-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -637,6 +709,9 @@
     <t>I am a civil engineer and was a guest at this facility from January 16 to January 18-2015. As I was there for a wedding in Texas I did not use the services of the facility save the breakfast which I had very early each morning. I was the first to be in the breakfast lobby each morning and used the waffle maker on each of the three mornings. On the last morning- January 18-2015 I went to the lobby at 6:00 am with my luggage and as usual poured the pancake mix into the waffle maker. I then left the area to place my luggage into my vehicle parked just outside the front door. I returned to the lobby immediately and removed the completed waffle and placed another into the waffle maker and left to retrieve another luggage from my room at Room 224. I again immediately returned to the lobby to commence my breakfast when I was accosted by the most vile, vitriolic and disrespetful tirade and accusation of being stupid and reckless and posing a fire-hazard to the premises. I inquired as to the reason for the Manager's anger and comments to which he told me that I twice posed a threat to his facility by leaving the waffle-maker unattended. I explained to him that I was accustomed to using the machine and that I know that the automatic timer would cut-off the equipment after the countdown...I am a civil engineer and was a guest at this facility from January 16 to January 18-2015. As I was there for a wedding in Texas I did not use the services of the facility save the breakfast which I had very early each morning. I was the first to be in the breakfast lobby each morning and used the waffle maker on each of the three mornings. On the last morning- January 18-2015 I went to the lobby at 6:00 am with my luggage and as usual poured the pancake mix into the waffle maker. I then left the area to place my luggage into my vehicle parked just outside the front door. I returned to the lobby immediately and removed the completed waffle and placed another into the waffle maker and left to retrieve another luggage from my room at Room 224. I again immediately returned to the lobby to commence my breakfast when I was accosted by the most vile, vitriolic and disrespetful tirade and accusation of being stupid and reckless and posing a fire-hazard to the premises. I inquired as to the reason for the Manager's anger and comments to which he told me that I twice posed a threat to his facility by leaving the waffle-maker unattended. I explained to him that I was accustomed to using the machine and that I know that the automatic timer would cut-off the equipment after the countdown was completed as it had done before. None-the-less I profusely apologized for causing his anxiety and asked to be forgiven. The Manager continued his tirade and disrespect by not accepting my apologies and continued accusing me of being reckless. I apologized once again , yet he continued his disrespectful and vitriolic attack. This should be all picked up on the camera in the lobby. He spoke to be with disdain reminiscent of the condescending tone of the 1960 south when Black people were vilified and disrespected - and this on the eve of Dr. Martin Luther King's anniversary. His behavior was unacceptable. He continued very angry until I left the facility. I respectfully bade him goodday and left after my wife and I had breakfast at about 6:45 amMore</t>
   </si>
   <si>
+    <t>devoriat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r237167349-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -658,6 +733,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>708stuarts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r235641298-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -667,12 +745,18 @@
     <t>10/21/2014</t>
   </si>
   <si>
+    <t>andreagU9008LJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r235610159-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>235610159</t>
   </si>
   <si>
+    <t>ebonyc664</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r207754224-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -700,6 +784,9 @@
     <t>Upon arriving late, the front entryway was not welcoming. Once given a room we were pointed to go outside around the building the enter through the back door which was suppose to be closer to our room. The room did not look anything like what was advertised online. It was dark, dingy, and super small. The worst thing is that there were baby roaches in the bed, all on the night stand and in the bathroom. I thought it was just one but they kept coming out of nowehere. I called the front desk to request another room and was told there were no more and in the morning once people left I could then receive another room. Needless to say me and my niece did not sleep much at all that night! In the morning the owner I guess came to give us a key to our new room right down the hall, so we switched our luggage over before we left to run errands. That room had no roaches, but I do not see where they get the pictures from online. Upon checking out, we walked out the room headed out, and the owner's wife immediately rushed into our room (im guessing to check to see if we stole anything or damaged something..?). I felt that was very unprofessional. I will never stay there again. Corporate supposedly e-mailed me because I did a complaint while in the roached...Upon arriving late, the front entryway was not welcoming. Once given a room we were pointed to go outside around the building the enter through the back door which was suppose to be closer to our room. The room did not look anything like what was advertised online. It was dark, dingy, and super small. The worst thing is that there were baby roaches in the bed, all on the night stand and in the bathroom. I thought it was just one but they kept coming out of nowehere. I called the front desk to request another room and was told there were no more and in the morning once people left I could then receive another room. Needless to say me and my niece did not sleep much at all that night! In the morning the owner I guess came to give us a key to our new room right down the hall, so we switched our luggage over before we left to run errands. That room had no roaches, but I do not see where they get the pictures from online. Upon checking out, we walked out the room headed out, and the owner's wife immediately rushed into our room (im guessing to check to see if we stole anything or damaged something..?). I felt that was very unprofessional. I will never stay there again. Corporate supposedly e-mailed me because I did a complaint while in the roached infested room, and I was suppose to receive a phone call to follow up with the situation. I have not heard from them yet, and doubt I will.More</t>
   </si>
   <si>
+    <t>KristyandLilyDuchess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r205871541-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -715,6 +802,9 @@
     <t xml:space="preserve">It's okay but I've had problems with no handicapped rooms ever. AC doesn't work right. Because I have a Service Dog I get broken down rooms. My Service Dog is cleaner than some children. The staff is nice but it is a forced nice. </t>
   </si>
   <si>
+    <t>Livewire56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r205102996-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -733,6 +823,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Bonnie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r186568865-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -745,6 +838,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Teresita C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r184410322-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -754,6 +850,9 @@
     <t>11/11/2013</t>
   </si>
   <si>
+    <t>Rikki H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r183668218-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -763,6 +862,9 @@
     <t>11/05/2013</t>
   </si>
   <si>
+    <t>lefty49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r178932880-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -775,6 +877,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Arthur Galyeon G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r178756918-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -790,6 +895,9 @@
     <t xml:space="preserve">This was a convenient place to stay. It was a quiet location The rooms were clean and comfortable. The staff was friendly. We could access all the places we needed to be without getting back on major highways.  I wish they would have offered a few more things for their continental breakfast. All in all it was a good experience and I would recommend it to others    </t>
   </si>
   <si>
+    <t>pocahunter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r174213413-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -802,6 +910,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Cheryl V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r167724521-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -820,6 +931,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Domionna M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r167544374-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -835,6 +949,9 @@
     <t>I believe Microtel is the best affordable, yet quality, that you can get.There service is great as well.</t>
   </si>
   <si>
+    <t>Kim L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r166111031-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -847,6 +964,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Tynisha A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r163305996-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -859,6 +979,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Timothy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r162020870-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -868,6 +991,9 @@
     <t>05/27/2013</t>
   </si>
   <si>
+    <t>Jeff B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r161461398-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -877,6 +1003,9 @@
     <t>05/21/2013</t>
   </si>
   <si>
+    <t>Trevelyn M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r153965802-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -889,6 +1018,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Bonnie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r151922226-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -907,6 +1039,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Ben R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r147324143-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -919,6 +1054,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>miltarytoy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r144975519-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -931,6 +1069,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Stephen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r143167602-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1084,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>MARGOT A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r142904541-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -952,6 +1096,9 @@
     <t>10/15/2012</t>
   </si>
   <si>
+    <t>DEARAMISH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r124905734-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -968,6 +1115,9 @@
   </si>
   <si>
     <t>February 2012</t>
+  </si>
+  <si>
+    <t>GreenTechInvestments</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r122322501-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
@@ -993,6 +1143,9 @@
 I complained to both the night manager and the morning manager about the noise issues and the morning manager (fat guy) said I do not have to stay there and I can go somewhere else. This is the first time they where rude to me and not the last. I was scheduled to leave on the Fri however my work kept me another couple days and I went on Priceline to add a couple more days. I did not get back to the hotel until about 11pm that night and the fat guy started arguing with me that I did not notify them I was staying that I did not pay for the room. I told him I had made an earlier reservation that day and asked what the issue was. He said I was trying to skip out on paying and I had to pay. I have...I had been using this Microtel for a couple years now when I am in Dallas dealing with property issues. The hotel had been fine until this last time I stayed in Nov-Dec 2011. They cram all the single bed rooms in one end of the building and are not spread out. The problem with this is there are a lot of out of town workers that stay there and make noise until 3-4am most days as well as leave their TVs on loud all night. You cannot get any sleep there.I complained to both the night manager and the morning manager about the noise issues and the morning manager (fat guy) said I do not have to stay there and I can go somewhere else. This is the first time they where rude to me and not the last. I was scheduled to leave on the Fri however my work kept me another couple days and I went on Priceline to add a couple more days. I did not get back to the hotel until about 11pm that night and the fat guy started arguing with me that I did not notify them I was staying that I did not pay for the room. I told him I had made an earlier reservation that day and asked what the issue was. He said I was trying to skip out on paying and I had to pay. I have never had problems with hotels worrying about me skipping out on paying when using Priceline so I payed and stayed another two days. The second day I had to change my schedule again and stay a couple more days and tried to prepay a couple more days and they would not accept it and told me to leave. They said they can refuse service to anybody and called the police. This hotel has lost my business and I will let everybody know that there are better places in the area like the Crossland Extended Stay Hotel up the street. They have small kitchenettes and pretty comfortable for the price. I recommend nobody stay at the Microtel in Mesquite on Sorrento Dr.More</t>
   </si>
   <si>
+    <t>aazaleaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r117414724-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1014,6 +1167,9 @@
     <t>I was a little skeptical, getting such a great deal on a hotel. But, all of my expectations were exceeded at this Microtel. The employees at the front counter were very friendly and helpful. The vending machines worked, the breakfast was stocked nicely (just your usual waffles, muffins, bagels, juice), the rooms were clean (small, but very clean), working tv with tons of channels, cold air conditioning, comfortable bed and spotless bathroom. The neighborhood seemed to be fine, it was close to I-30, but without the noise, and just around the corner from Town East Mall, restaurants, etc. I would stay here again in a minute. Highly recommended for couples or small families who are traveling on a budget, but still care about cleanliness and quality of stay.More</t>
   </si>
   <si>
+    <t>SeattleSked</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r66452114-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1030,6 +1186,9 @@
   </si>
   <si>
     <t>May 2010</t>
+  </si>
+  <si>
+    <t>Ashlybrooke</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r36757778-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
@@ -1552,43 +1711,47 @@
       <c r="A2" t="n">
         <v>38541</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>168944</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1612,48 +1775,52 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38541</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>168945</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -1675,56 +1842,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38541</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>5658</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -1744,35 +1915,39 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38541</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>24222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1780,10 +1955,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1804,49 +1979,50 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38541</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>113432</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1868,54 +2044,58 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38541</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>5027</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1937,56 +2117,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Y7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38541</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>46965</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>86</v>
       </c>
-      <c r="L8" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>80</v>
-      </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1998,56 +2182,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="X8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38541</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>27634</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" t="s">
         <v>95</v>
-      </c>
-      <c r="L9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" t="s">
-        <v>88</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -2069,56 +2257,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="X9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38541</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>168946</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2142,50 +2334,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38541</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>168947</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -2209,50 +2405,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38541</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>168948</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2266,50 +2466,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38541</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>168949</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -2331,41 +2535,45 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="X13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38541</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>9365</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -2373,10 +2581,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2397,51 +2605,52 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38541</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>168950</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2457,54 +2666,58 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38541</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>168951</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2526,56 +2739,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="X16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="Y16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38541</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>168952</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2599,50 +2816,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38541</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>168953</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2654,41 +2875,45 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="X18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38541</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>168954</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -2696,10 +2921,10 @@
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -2720,51 +2945,52 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38541</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>168955</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2778,41 +3004,45 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38541</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>168956</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -2820,10 +3050,10 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2844,49 +3074,50 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38541</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>168957</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2908,56 +3139,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="X22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="Y22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38541</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>7997</v>
+      </c>
+      <c r="C23" t="s">
+        <v>207</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="J23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="K23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2975,48 +3210,52 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38541</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>22655</v>
+      </c>
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3038,56 +3277,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="X24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="Y24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38541</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>168958</v>
+      </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="J25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="K25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3111,50 +3354,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38541</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>168959</v>
+      </c>
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3178,35 +3425,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38541</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>168960</v>
+      </c>
+      <c r="C27" t="s">
+        <v>237</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="J27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3214,10 +3465,10 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3236,36 +3487,37 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38541</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>168961</v>
+      </c>
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3273,10 +3525,10 @@
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3297,51 +3549,52 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38541</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>168962</v>
+      </c>
+      <c r="C29" t="s">
+        <v>244</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="J29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="K29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="O29" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3363,47 +3616,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="X29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="Y29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38541</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>168963</v>
+      </c>
+      <c r="C30" t="s">
+        <v>254</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="K30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
@@ -3432,50 +3689,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38541</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>168964</v>
+      </c>
+      <c r="C31" t="s">
+        <v>260</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
+        <v>266</v>
+      </c>
+      <c r="O31" t="s">
         <v>236</v>
-      </c>
-      <c r="O31" t="s">
-        <v>211</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3489,35 +3750,39 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38541</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>35907</v>
+      </c>
+      <c r="C32" t="s">
+        <v>267</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="J32" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
@@ -3525,10 +3790,10 @@
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3549,36 +3814,37 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38541</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>168965</v>
+      </c>
+      <c r="C33" t="s">
+        <v>272</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="J33" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -3586,10 +3852,10 @@
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3610,36 +3876,37 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38541</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>168966</v>
+      </c>
+      <c r="C34" t="s">
+        <v>276</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="J34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -3647,10 +3914,10 @@
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="O34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3663,36 +3930,37 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38541</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>168967</v>
+      </c>
+      <c r="C35" t="s">
+        <v>280</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="J35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -3700,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="O35" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3724,51 +3992,52 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38541</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>168968</v>
+      </c>
+      <c r="C36" t="s">
+        <v>285</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="O36" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3792,35 +4061,39 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38541</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>168969</v>
+      </c>
+      <c r="C37" t="s">
+        <v>291</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="J37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -3828,10 +4101,10 @@
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="O37" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -3852,51 +4125,52 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38541</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>21845</v>
+      </c>
+      <c r="C38" t="s">
+        <v>296</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="J38" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="O38" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -3920,50 +4194,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38541</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>168970</v>
+      </c>
+      <c r="C39" t="s">
+        <v>303</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="J39" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="K39" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="O39" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -3987,35 +4265,39 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38541</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>4280</v>
+      </c>
+      <c r="C40" t="s">
+        <v>309</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="J40" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4023,10 +4305,10 @@
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="O40" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4047,36 +4329,37 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38541</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>168971</v>
+      </c>
+      <c r="C41" t="s">
+        <v>314</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="J41" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4084,10 +4367,10 @@
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4108,36 +4391,37 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38541</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>6542</v>
+      </c>
+      <c r="C42" t="s">
+        <v>319</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="J42" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -4145,10 +4429,10 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="O42" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4169,36 +4453,37 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38541</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>3641</v>
+      </c>
+      <c r="C43" t="s">
+        <v>323</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="J43" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4206,10 +4491,10 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>2</v>
@@ -4230,36 +4515,37 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38541</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>168972</v>
+      </c>
+      <c r="C44" t="s">
+        <v>327</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="J44" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -4267,10 +4553,10 @@
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="O44" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4291,51 +4577,52 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38541</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>9342</v>
+      </c>
+      <c r="C45" t="s">
+        <v>332</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="J45" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="K45" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="L45" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="O45" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4359,35 +4646,39 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38541</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>13144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>339</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="J46" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -4395,10 +4686,10 @@
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="O46" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4419,49 +4710,50 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38541</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>168973</v>
+      </c>
+      <c r="C47" t="s">
+        <v>344</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="J47" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="O47" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -4485,35 +4777,39 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38541</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>19814</v>
+      </c>
+      <c r="C48" t="s">
+        <v>349</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="J48" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
@@ -4521,10 +4817,10 @@
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="O48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4545,36 +4841,37 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38541</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>168974</v>
+      </c>
+      <c r="C49" t="s">
+        <v>354</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="J49" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -4582,10 +4879,10 @@
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="O49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4606,51 +4903,52 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38541</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>168975</v>
+      </c>
+      <c r="C50" t="s">
+        <v>358</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="J50" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="K50" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="L50" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="O50" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -4674,50 +4972,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38541</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>168976</v>
+      </c>
+      <c r="C51" t="s">
+        <v>365</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="J51" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="K51" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="L51" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="O51" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -4741,50 +5043,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38541</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>168977</v>
+      </c>
+      <c r="C52" t="s">
+        <v>373</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="J52" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="K52" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="L52" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="O52" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -4804,50 +5110,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>38541</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>168978</v>
+      </c>
+      <c r="C53" t="s">
+        <v>381</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="J53" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="K53" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="O53" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -4861,50 +5171,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>38541</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>168979</v>
+      </c>
+      <c r="C54" t="s">
+        <v>388</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="J54" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="K54" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="L54" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="O54" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -4926,7 +5240,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_540.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_540.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="532">
   <si>
     <t>STR#</t>
   </si>
@@ -147,13 +147,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>bean665</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r562243871-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r568437247-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>56280</t>
@@ -162,6 +159,45 @@
     <t>241652</t>
   </si>
   <si>
+    <t>568437247</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We expect a good night stay at Microtel, but we were sorely disappointed. Night clerk was very nice, but had to ask permission to give us a coffee pot and iron. There were no other toiletries; shampoo, lotion that make an overnite stay convenient.  Very stingy. Breakfast was minimal; packaged pastries and coffee. We passed </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r566680107-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>566680107</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Most comfortable mattress ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a long day of driving, this mattress was the most comfortable I had ever experienced.  Husband wanted to ask desk where they got the mattress.  Extremely friendly clerk upon check-in, but very professional.  Different person at checkout, but same warmth and kindness.  Clean and quiet.  Safe area.  Good refrigerator and microwave.  Lots of hot water.  Waffle maker.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r562243871-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
     <t>562243871</t>
   </si>
   <si>
@@ -180,10 +216,7 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>S751QXMK</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r554292384-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r554292384-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>554292384</t>
@@ -198,10 +231,7 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded January 18, 2018</t>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded January 18, 2018</t>
   </si>
   <si>
     <t>Responded January 18, 2018</t>
@@ -210,10 +240,7 @@
     <t>More</t>
   </si>
   <si>
-    <t>Donna W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r532652677-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r532652677-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>532652677</t>
@@ -231,10 +258,55 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t>Peter W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r491634299-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r531794856-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>531794856</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Quality Hotel</t>
+  </si>
+  <si>
+    <t>Quick Business visit to Dallas area great location easy to find. Clean room very friendly staff and helpful with information requested. Great price for a good night sleep.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r505964499-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>505964499</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Awesome place to stay, convenient to lots of places to go. We have been staying here for 7 or 8 years when in DallasMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>veena m, Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Awesome place to stay, convenient to lots of places to go. We have been staying here for 7 or 8 years when in DallasMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r491634299-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>491634299</t>
@@ -246,10 +318,7 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>Evelyn S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r486964859-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r486964859-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>486964859</t>
@@ -258,16 +327,13 @@
     <t>05/23/2017</t>
   </si>
   <si>
-    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded May 29, 2017</t>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded May 29, 2017</t>
   </si>
   <si>
     <t>Responded May 29, 2017</t>
   </si>
   <si>
-    <t>David L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r483038112-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r483038112-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>483038112</t>
@@ -279,16 +345,49 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded May 11, 2017</t>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded May 11, 2017</t>
   </si>
   <si>
     <t>Responded May 11, 2017</t>
   </si>
   <si>
-    <t>Bart W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r478097769-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r481847193-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>481847193</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Not the one</t>
+  </si>
+  <si>
+    <t>Last year I had stayed in a Microtel in Mesquite and enjoyed it and I thought this was it. Upon entering 3 men were sitting on the couch in the lobby watching TV, one gets up and is the clerk. We get into a debate when he wants me to fill out a registration card! I tell him is not my information on the reservation. He says yes but he needs the card and shows me on on file with the copy of the person's ID.  I thought I had reserved a smoking room but it check in was told 100 Non Smoking. I have a room on the 3rd floor, tgi they have an elevator. The room a queen suite is not as good as most Microtels it was clean but had an odor, no coffee maker and the bed slept poorly. As I was leaving I notice 2 clean ashtrays stacked on the bed table near the window, clean ashtrays in a 100% non smoking hotel??I very slightly recommend this Microtel but go to the other in Mesquite for a much better stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Last year I had stayed in a Microtel in Mesquite and enjoyed it and I thought this was it. Upon entering 3 men were sitting on the couch in the lobby watching TV, one gets up and is the clerk. We get into a debate when he wants me to fill out a registration card! I tell him is not my information on the reservation. He says yes but he needs the card and shows me on on file with the copy of the person's ID.  I thought I had reserved a smoking room but it check in was told 100 Non Smoking. I have a room on the 3rd floor, tgi they have an elevator. The room a queen suite is not as good as most Microtels it was clean but had an odor, no coffee maker and the bed slept poorly. As I was leaving I notice 2 clean ashtrays stacked on the bed table near the window, clean ashtrays in a 100% non smoking hotel??I very slightly recommend this Microtel but go to the other in Mesquite for a much better stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r479538223-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>479538223</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>April 2017 Stay</t>
+  </si>
+  <si>
+    <t>I booked 5 nights in the Microtel Inn, 4/20 - 4/24. I stayed in room 112. During the third night, at approximately 12:45 a.m., 4/23, I was awoken by the sound of 2 to 3 children laughing, shouting and banging on the wall or furniture in room 111, next to my room. I waited to see if the noise would stop, but it persisted. I could hear the sounds of adults, but they were not quieting the children. At approximately 1:15 a.m., I called the front desk. The manager told me "not to worry" and that he could hear the noise at his desk. I assumed he would remedy the situation so that I could sleep. The noise continued. At 2:30 a.m., I called the front desk again. I was told the children were "illegal" or something to that effect and that he, too, was disturbed. It was not quiet until well after 3:00 a.m. When I was checking out on Tue., 4/27, I asked the manager to credit me for Saturday night because I was unable to sleep. He would not give me a credit. He informed that he was disturbed, too, as if this excused his responsibility to me. The manager told me that when he confronted the guests in in 111, a man told him, "I paid for the room...I'll complain about you to Wyndham," or words to that effect. I believe I should be credited for...I booked 5 nights in the Microtel Inn, 4/20 - 4/24. I stayed in room 112. During the third night, at approximately 12:45 a.m., 4/23, I was awoken by the sound of 2 to 3 children laughing, shouting and banging on the wall or furniture in room 111, next to my room. I waited to see if the noise would stop, but it persisted. I could hear the sounds of adults, but they were not quieting the children. At approximately 1:15 a.m., I called the front desk. The manager told me "not to worry" and that he could hear the noise at his desk. I assumed he would remedy the situation so that I could sleep. The noise continued. At 2:30 a.m., I called the front desk again. I was told the children were "illegal" or something to that effect and that he, too, was disturbed. It was not quiet until well after 3:00 a.m. When I was checking out on Tue., 4/27, I asked the manager to credit me for Saturday night because I was unable to sleep. He would not give me a credit. He informed that he was disturbed, too, as if this excused his responsibility to me. The manager told me that when he confronted the guests in in 111, a man told him, "I paid for the room...I'll complain about you to Wyndham," or words to that effect. I believe I should be credited for that night. MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked 5 nights in the Microtel Inn, 4/20 - 4/24. I stayed in room 112. During the third night, at approximately 12:45 a.m., 4/23, I was awoken by the sound of 2 to 3 children laughing, shouting and banging on the wall or furniture in room 111, next to my room. I waited to see if the noise would stop, but it persisted. I could hear the sounds of adults, but they were not quieting the children. At approximately 1:15 a.m., I called the front desk. The manager told me "not to worry" and that he could hear the noise at his desk. I assumed he would remedy the situation so that I could sleep. The noise continued. At 2:30 a.m., I called the front desk again. I was told the children were "illegal" or something to that effect and that he, too, was disturbed. It was not quiet until well after 3:00 a.m. When I was checking out on Tue., 4/27, I asked the manager to credit me for Saturday night because I was unable to sleep. He would not give me a credit. He informed that he was disturbed, too, as if this excused his responsibility to me. The manager told me that when he confronted the guests in in 111, a man told him, "I paid for the room...I'll complain about you to Wyndham," or words to that effect. I believe I should be credited for...I booked 5 nights in the Microtel Inn, 4/20 - 4/24. I stayed in room 112. During the third night, at approximately 12:45 a.m., 4/23, I was awoken by the sound of 2 to 3 children laughing, shouting and banging on the wall or furniture in room 111, next to my room. I waited to see if the noise would stop, but it persisted. I could hear the sounds of adults, but they were not quieting the children. At approximately 1:15 a.m., I called the front desk. The manager told me "not to worry" and that he could hear the noise at his desk. I assumed he would remedy the situation so that I could sleep. The noise continued. At 2:30 a.m., I called the front desk again. I was told the children were "illegal" or something to that effect and that he, too, was disturbed. It was not quiet until well after 3:00 a.m. When I was checking out on Tue., 4/27, I asked the manager to credit me for Saturday night because I was unable to sleep. He would not give me a credit. He informed that he was disturbed, too, as if this excused his responsibility to me. The manager told me that when he confronted the guests in in 111, a man told him, "I paid for the room...I'll complain about you to Wyndham," or words to that effect. I believe I should be credited for that night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r478097769-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>478097769</t>
@@ -303,10 +402,7 @@
     <t>Worst hotel no flat sheet on the bed. Rude front desk clerk said if I don't like it I can leave. DONT STAY HERE. All you have to cover with is a nasty polyester comforter that lord only knows when it was washed last. If you stay being a black light!!!!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded April 27, 2017</t>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded April 27, 2017</t>
   </si>
   <si>
     <t>Responded April 27, 2017</t>
@@ -315,10 +411,7 @@
     <t>Worst hotel no flat sheet on the bed. Rude front desk clerk said if I don't like it I can leave. DONT STAY HERE. All you have to cover with is a nasty polyester comforter that lord only knows when it was washed last. If you stay being a black light!!!!More</t>
   </si>
   <si>
-    <t>Raymond L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r477376656-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r477376656-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>477376656</t>
@@ -335,7 +428,7 @@
 Check out, I just wanted to leave so check out was fast after the lady finished up cleaning...This was one of my worst stays at Microtel's. It was mainly check in, this middle aged foreign man came to the counter from watching tv with 2 other men. The main problem is he insisted I fill out a registration slip. I asked if my information was on the reservation he said yes but I must have the form filled out. He did not enter any information but sure printed out a bill with my information on it to have me sign. Add to that they take a copy of your ID card and is available to any body, he showed me another persons registration slip and copy of the ID to demonstrate why the registration slip was needed.The room was below average for Microtel, it was clean and slightly stocked with towels and other linen but few amenities( shampoo and bar soap only). I had a queen suite and it had a microwave and Frig but no coffee maker. The bed was comfortable and had a good night sleep. The a/c worked very well maybe to well awoke to a very cold room. One mystery I question but did not question the staff. This is supposed to be a 100% non-smoking motel, much to my disappointment but there was an clean ashtray on the bedside table in my room!Check out, I just wanted to leave so check out was fast after the lady finished up cleaning part of the breakfast area.I can honestly Not recommend this motel due to the ID theft possibility that is practiced here and is this a truly 100% non-smoking!MoreShow less</t>
   </si>
   <si>
-    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded April 21, 2017</t>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded April 21, 2017</t>
   </si>
   <si>
     <t>Responded April 21, 2017</t>
@@ -346,10 +439,7 @@
 Check out, I just wanted to leave so check out was fast after the lady finished up cleaning...This was one of my worst stays at Microtel's. It was mainly check in, this middle aged foreign man came to the counter from watching tv with 2 other men. The main problem is he insisted I fill out a registration slip. I asked if my information was on the reservation he said yes but I must have the form filled out. He did not enter any information but sure printed out a bill with my information on it to have me sign. Add to that they take a copy of your ID card and is available to any body, he showed me another persons registration slip and copy of the ID to demonstrate why the registration slip was needed.The room was below average for Microtel, it was clean and slightly stocked with towels and other linen but few amenities( shampoo and bar soap only). I had a queen suite and it had a microwave and Frig but no coffee maker. The bed was comfortable and had a good night sleep. The a/c worked very well maybe to well awoke to a very cold room. One mystery I question but did not question the staff. This is supposed to be a 100% non-smoking motel, much to my disappointment but there was an clean ashtray on the bedside table in my room!Check out, I just wanted to leave so check out was fast after the lady finished up cleaning part of the breakfast area.I can honestly Not recommend this motel due to the ID theft possibility that is practiced here and is this a truly 100% non-smoking!More</t>
   </si>
   <si>
-    <t>923jerryt</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r468609315-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r468609315-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>468609315</t>
@@ -367,10 +457,37 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>261annonymous</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r437630940-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r456539007-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>456539007</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r448389508-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>448389508</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r437630940-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>437630940</t>
@@ -391,10 +508,7 @@
     <t>Only choose this place as a last resort! The check-in guy immediately yelled that "you made reservation for just one person!" He didn't bother to ask if my friend who was with us would be staying (she was just helping to bring in some luggage). After clarifying that situation, we move on to the room. The hallways, the room, the bathroom were very dated. The facility smelled of cigarette smoke from the check-in desk to the room (faint smell of cigarette in the non-smoking room). If you want extra towels, you have to bring your used one to the front desk for an exchange. This place reminded me of a dormitory or half-way house...not the best neighborhood. The free breakfast looked to be nothing more than packaged muffins. As far as the 'fitness center' that is advertised on Microtel website, the front desk person said that he was a yoga instructor...that is the extent of the fitness center. Also, the internet never worked. Definitely will NOT choose this place again or recommend it to anyone.More</t>
   </si>
   <si>
-    <t>Chrissy K</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r435130663-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r435130663-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>435130663</t>
@@ -415,10 +529,7 @@
     <t>I originally wanted to give them 3 stars, but after my last night of my reservation, didn't want to give them even one star. The room next to us was partying until around 2am. We turned our tv on in our room and it tuned them out enough to allow us to sleep. Around 4am we get MULTIPLE phone calls from the front desk and they come knocking on the door. My boyfriend answered and they ask us how many people were in the room, but then he realizes he made a mistake and was really supposed to be asking the room next to us (which was the party room) and apologizes. The next morning on checkout, we mentioned this to the person on duty and asked for a receipt, which he said he couldn't even provide (who does that?!)I have contacted Corporate and they have given me more assistance than the manager. I wish I could say more positive things about this place, but I don't feel like customer service is this hotel's priority. This is one of those types of places I would only suggest for a one night stay, only if you needed a place to lay your head and nothing else.More</t>
   </si>
   <si>
-    <t>O7174S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r420564870-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r420564870-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>420564870</t>
@@ -436,7 +547,7 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded September 23, 2016</t>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded September 23, 2016</t>
   </si>
   <si>
     <t>Responded September 23, 2016</t>
@@ -445,10 +556,46 @@
     <t>The towels were awful. There was no blow dryer. The room smelled like smoke. After my first night they did move us to another room.More</t>
   </si>
   <si>
-    <t>Richard M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r408069809-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r416289449-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>416289449</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>De busfamily trip</t>
+  </si>
+  <si>
+    <t>Its a nice friendly hotel and the kids love the waffle maker for their breakfast !! I like their other breakfast selections. Lol. The service is good and they help keep the rooms clean for you. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>veena m, Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Its a nice friendly hotel and the kids love the waffle maker for their breakfast !! I like their other breakfast selections. Lol. The service is good and they help keep the rooms clean for you. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r416084675-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>416084675</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microtel is a great hotel. I've been here for the past month on and off and service has always been excellent. There's a nice breakfast in the morning of Texas waffles and orange juice with a few other items. The rooms are cleaned daily and the staff is helpful. Microtel is my go to place when in Texas. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r408069809-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>408069809</t>
@@ -457,13 +604,7 @@
     <t>08/20/2016</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>Expressions1</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r398408614-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r398408614-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>398408614</t>
@@ -481,10 +622,7 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>veena m, Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded July 29, 2016</t>
+    <t>veena m, Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded July 29, 2016</t>
   </si>
   <si>
     <t>Responded July 29, 2016</t>
@@ -493,10 +631,7 @@
     <t>I won't be staying here again.  You walk in and you're hit with the smell of curry cooking!The pitiful excuse for breakfast was the last straw. There was barely anything available. Not worth the price.More</t>
   </si>
   <si>
-    <t>cameronf623</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r382500498-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r382500498-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>382500498</t>
@@ -508,16 +643,61 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded June 16, 2016</t>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded June 16, 2016</t>
   </si>
   <si>
     <t>Responded June 16, 2016</t>
   </si>
   <si>
-    <t>Sparks S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r348476823-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r364809467-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>364809467</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant Stay </t>
+  </si>
+  <si>
+    <t>Rooms were clean. Comfortable beds and I enjoyed a pleasant sleep. The continental breakfast featuring Texas shaped waffles was fun as well. Good place if your on a budget. So for those who are especially picky go spend more then..MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>veena m, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Rooms were clean. Comfortable beds and I enjoyed a pleasant sleep. The continental breakfast featuring Texas shaped waffles was fun as well. Good place if your on a budget. So for those who are especially picky go spend more then..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r352345060-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>352345060</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stevens transport </t>
+  </si>
+  <si>
+    <t>This motel is clean and has excellent customer service. Breakfast in the morning consist of waffles shaped like the state of Texas and are delicious. The coffee and pastries are just as good as the waffles. The rooms are very accommodating with fridges and microwaves. The room comes with HBO and other premium channels as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>This motel is clean and has excellent customer service. Breakfast in the morning consist of waffles shaped like the state of Texas and are delicious. The coffee and pastries are just as good as the waffles. The rooms are very accommodating with fridges and microwaves. The room comes with HBO and other premium channels as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r348476823-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>348476823</t>
@@ -538,10 +718,7 @@
     <t>I will not stay in this hotel again.   I found this based on a search and yes it was close to my destination BUT I had rather drive an hour than stay in this area again.  The hotel and rooms both need updates, the hall is dark and the carpet stinks.  The positive was that the lady who checked me in was VERY nice and helpful but the man who replaced her for the night shift was not.  I will rate the service average ONLY because the lady was so nice. I will also rate the property appearance poor because the web pictures are not at all like what you get!More</t>
   </si>
   <si>
-    <t>canderson41955</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r342180036-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r342180036-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>342180036</t>
@@ -559,7 +736,7 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>veena m, General Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded January 25, 2016</t>
+    <t>veena m, General Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded January 25, 2016</t>
   </si>
   <si>
     <t>Responded January 25, 2016</t>
@@ -568,10 +745,7 @@
     <t>When we walked in the lobby, I knew it was going to be bad! SMELLED bad.....was not looking for frills, but must have clean!!!!!I thought because it was in the wyndam group of hotels, it would be ok......this particular one was in mesquite, Texas, and again I say Terrible!More</t>
   </si>
   <si>
-    <t>676royb</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r332765754-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r332765754-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>332765754</t>
@@ -583,10 +757,40 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>richardsJ6088FJ</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r327253865-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r329154851-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>329154851</t>
+  </si>
+  <si>
+    <t>11/26/2015</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>This is not the Hyatt, But Our room was Clean &amp; Quiet. Great location for shopping in Mesquite &amp; Driving into Dallas. Morning Clerk was Dressed well and Very nice. No Cream cheese for Bagel.Older Hotel.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r328266325-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>328266325</t>
+  </si>
+  <si>
+    <t>11/21/2015</t>
+  </si>
+  <si>
+    <t>DON'T STAY HERE!!!</t>
+  </si>
+  <si>
+    <t>This was by far the worst experience I have had as far as hotel stays goes. The man at the front desk was VERY rude. My room was dirty. There was something smeared on the ceiling and hair washed out from behind the shower curtain when I turned the water on. Needless to stay I cut my stay here short.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r327253865-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>327253865</t>
@@ -604,7 +808,7 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>veena m, Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded November 18, 2015</t>
+    <t>veena m, Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded November 18, 2015</t>
   </si>
   <si>
     <t>Responded November 18, 2015</t>
@@ -613,10 +817,7 @@
     <t>We stayed overnight on a trip to another city.  The desk service was very good and helpful.  Did not have any noise from the outside or the inside.  The breakfast was skimpy on choice but it was adequate in the amount.  Room and bathroom were clean and the heating/cooling unit worked very well.  We would stay there again.More</t>
   </si>
   <si>
-    <t>887hazell</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r323816094-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r323816094-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>323816094</t>
@@ -625,10 +826,7 @@
     <t>11/02/2015</t>
   </si>
   <si>
-    <t>502pamelap</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r320518229-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r320518229-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>320518229</t>
@@ -637,16 +835,52 @@
     <t>10/20/2015</t>
   </si>
   <si>
-    <t>veena m, Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded October 22, 2015</t>
+    <t>veena m, Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded October 22, 2015</t>
   </si>
   <si>
     <t>Responded October 22, 2015</t>
   </si>
   <si>
-    <t>Dorothy C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r266916463-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r293007513-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>293007513</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r278524845-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>278524845</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>First off, we booked a room with TWO beds, and got there and they said our "second bed" was a couch. When making the reservation, they assured us of 2 queen beds, not the case. Then we found a pair of DIRTY PANTIES under the pull out couch! There were also dead bugs all over the bathroom. This place is awful and we will never stay here again! Find a different hotel!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>veena m, Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2015</t>
+  </si>
+  <si>
+    <t>First off, we booked a room with TWO beds, and got there and they said our "second bed" was a couch. When making the reservation, they assured us of 2 queen beds, not the case. Then we found a pair of DIRTY PANTIES under the pull out couch! There were also dead bugs all over the bathroom. This place is awful and we will never stay here again! Find a different hotel!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r266916463-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>266916463</t>
@@ -664,10 +898,7 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>Debbie D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r261641562-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r261641562-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>261641562</t>
@@ -679,16 +910,13 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>veena m, Front desk at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded March 26, 2015</t>
+    <t>veena m, Front desk at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded March 26, 2015</t>
   </si>
   <si>
     <t>Responded March 26, 2015</t>
   </si>
   <si>
-    <t>43winstonw</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r250109845-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r250109845-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>250109845</t>
@@ -709,10 +937,43 @@
     <t>I am a civil engineer and was a guest at this facility from January 16 to January 18-2015. As I was there for a wedding in Texas I did not use the services of the facility save the breakfast which I had very early each morning. I was the first to be in the breakfast lobby each morning and used the waffle maker on each of the three mornings. On the last morning- January 18-2015 I went to the lobby at 6:00 am with my luggage and as usual poured the pancake mix into the waffle maker. I then left the area to place my luggage into my vehicle parked just outside the front door. I returned to the lobby immediately and removed the completed waffle and placed another into the waffle maker and left to retrieve another luggage from my room at Room 224. I again immediately returned to the lobby to commence my breakfast when I was accosted by the most vile, vitriolic and disrespetful tirade and accusation of being stupid and reckless and posing a fire-hazard to the premises. I inquired as to the reason for the Manager's anger and comments to which he told me that I twice posed a threat to his facility by leaving the waffle-maker unattended. I explained to him that I was accustomed to using the machine and that I know that the automatic timer would cut-off the equipment after the countdown...I am a civil engineer and was a guest at this facility from January 16 to January 18-2015. As I was there for a wedding in Texas I did not use the services of the facility save the breakfast which I had very early each morning. I was the first to be in the breakfast lobby each morning and used the waffle maker on each of the three mornings. On the last morning- January 18-2015 I went to the lobby at 6:00 am with my luggage and as usual poured the pancake mix into the waffle maker. I then left the area to place my luggage into my vehicle parked just outside the front door. I returned to the lobby immediately and removed the completed waffle and placed another into the waffle maker and left to retrieve another luggage from my room at Room 224. I again immediately returned to the lobby to commence my breakfast when I was accosted by the most vile, vitriolic and disrespetful tirade and accusation of being stupid and reckless and posing a fire-hazard to the premises. I inquired as to the reason for the Manager's anger and comments to which he told me that I twice posed a threat to his facility by leaving the waffle-maker unattended. I explained to him that I was accustomed to using the machine and that I know that the automatic timer would cut-off the equipment after the countdown was completed as it had done before. None-the-less I profusely apologized for causing his anxiety and asked to be forgiven. The Manager continued his tirade and disrespect by not accepting my apologies and continued accusing me of being reckless. I apologized once again , yet he continued his disrespectful and vitriolic attack. This should be all picked up on the camera in the lobby. He spoke to be with disdain reminiscent of the condescending tone of the 1960 south when Black people were vilified and disrespected - and this on the eve of Dr. Martin Luther King's anniversary. His behavior was unacceptable. He continued very angry until I left the facility. I respectfully bade him goodday and left after my wife and I had breakfast at about 6:45 amMore</t>
   </si>
   <si>
-    <t>devoriat</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r237167349-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r242726402-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>242726402</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Off interstate, decent stop. Get what you pay for.</t>
+  </si>
+  <si>
+    <t>There's a 7/11 next door, so that's good - don't have to drive anywhere for food.Got here on a Friday (Halloween actually), and it was a decent place.Smelled weird in stairwells (a bit like stale B.O. or salty-sweet smell). Other than that - you get what you pay for, as in cheap room, cheap price. Staff was helpful and breakfast was continental (at best). Hotel looked like it got remodeled in 1980s or 1990s, so don't expect much else.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r237343621-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>237343621</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>excellent!!</t>
+  </si>
+  <si>
+    <t>this was my 12 th year to stay a month. During the State Fair of Texas. I would reccomend staying at microtel on highway 30.The room was very clean pleany of towel provied and i never encountered any problem. The air condentior was very good and the night help was kind and many times had the door opened for me when i arrived.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r237167349-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>237167349</t>
@@ -727,16 +988,7 @@
     <t xml:space="preserve">Your Review      Loved it      I would love to stay again My daughter loved the room and so did I ... I'm planning to stay again </t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>708stuarts</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r235641298-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r235641298-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>235641298</t>
@@ -745,19 +997,34 @@
     <t>10/21/2014</t>
   </si>
   <si>
-    <t>andreagU9008LJ</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r235610159-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r235610159-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>235610159</t>
   </si>
   <si>
-    <t>ebonyc664</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r207754224-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r233425607-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>233425607</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r228190607-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>228190607</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r207754224-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>207754224</t>
@@ -775,7 +1042,7 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>veena m, Guest Relations Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas At I-30, responded to this reviewResponded July 14, 2014</t>
+    <t>veena m, Guest Relations Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at I-30, responded to this reviewResponded July 14, 2014</t>
   </si>
   <si>
     <t>Responded July 14, 2014</t>
@@ -784,10 +1051,7 @@
     <t>Upon arriving late, the front entryway was not welcoming. Once given a room we were pointed to go outside around the building the enter through the back door which was suppose to be closer to our room. The room did not look anything like what was advertised online. It was dark, dingy, and super small. The worst thing is that there were baby roaches in the bed, all on the night stand and in the bathroom. I thought it was just one but they kept coming out of nowehere. I called the front desk to request another room and was told there were no more and in the morning once people left I could then receive another room. Needless to say me and my niece did not sleep much at all that night! In the morning the owner I guess came to give us a key to our new room right down the hall, so we switched our luggage over before we left to run errands. That room had no roaches, but I do not see where they get the pictures from online. Upon checking out, we walked out the room headed out, and the owner's wife immediately rushed into our room (im guessing to check to see if we stole anything or damaged something..?). I felt that was very unprofessional. I will never stay there again. Corporate supposedly e-mailed me because I did a complaint while in the roached...Upon arriving late, the front entryway was not welcoming. Once given a room we were pointed to go outside around the building the enter through the back door which was suppose to be closer to our room. The room did not look anything like what was advertised online. It was dark, dingy, and super small. The worst thing is that there were baby roaches in the bed, all on the night stand and in the bathroom. I thought it was just one but they kept coming out of nowehere. I called the front desk to request another room and was told there were no more and in the morning once people left I could then receive another room. Needless to say me and my niece did not sleep much at all that night! In the morning the owner I guess came to give us a key to our new room right down the hall, so we switched our luggage over before we left to run errands. That room had no roaches, but I do not see where they get the pictures from online. Upon checking out, we walked out the room headed out, and the owner's wife immediately rushed into our room (im guessing to check to see if we stole anything or damaged something..?). I felt that was very unprofessional. I will never stay there again. Corporate supposedly e-mailed me because I did a complaint while in the roached infested room, and I was suppose to receive a phone call to follow up with the situation. I have not heard from them yet, and doubt I will.More</t>
   </si>
   <si>
-    <t>KristyandLilyDuchess</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r205871541-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r205871541-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>205871541</t>
@@ -802,10 +1066,7 @@
     <t xml:space="preserve">It's okay but I've had problems with no handicapped rooms ever. AC doesn't work right. Because I have a Service Dog I get broken down rooms. My Service Dog is cleaner than some children. The staff is nice but it is a forced nice. </t>
   </si>
   <si>
-    <t>Livewire56</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r205102996-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r205102996-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>205102996</t>
@@ -823,10 +1084,28 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>Bonnie S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r186568865-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r198057234-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>198057234</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r195554657-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>195554657</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r186568865-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>186568865</t>
@@ -838,10 +1117,7 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>Teresita C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r184410322-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r184410322-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>184410322</t>
@@ -850,10 +1126,7 @@
     <t>11/11/2013</t>
   </si>
   <si>
-    <t>Rikki H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r183668218-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r183668218-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>183668218</t>
@@ -862,10 +1135,37 @@
     <t>11/05/2013</t>
   </si>
   <si>
-    <t>lefty49</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r178932880-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r179947481-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>179947481</t>
+  </si>
+  <si>
+    <t>10/06/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r179273357-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>179273357</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>When we arrive the young lady was nice ..but the night...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we arrive the young lady was nice ..but the night manager was very unprofessional and not helpful to accommodate us..he also said i owe him more.. </t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r178932880-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>178932880</t>
@@ -874,13 +1174,7 @@
     <t>09/28/2013</t>
   </si>
   <si>
-    <t>September 2013</t>
-  </si>
-  <si>
-    <t>Arthur Galyeon G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r178756918-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r178756918-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>178756918</t>
@@ -895,10 +1189,7 @@
     <t xml:space="preserve">This was a convenient place to stay. It was a quiet location The rooms were clean and comfortable. The staff was friendly. We could access all the places we needed to be without getting back on major highways.  I wish they would have offered a few more things for their continental breakfast. All in all it was a good experience and I would recommend it to others    </t>
   </si>
   <si>
-    <t>pocahunter</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r174213413-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r174213413-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>174213413</t>
@@ -910,10 +1201,34 @@
     <t>August 2013</t>
   </si>
   <si>
-    <t>Cheryl V</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r167724521-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r173843922-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>173843922</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>Very Enjoyable</t>
+  </si>
+  <si>
+    <t>Being I work in the Public, I know what to look for.  I give this Hotel a standing ovation. Great service, very clean; immaculate, very professional staff, very helpful, hospitable., not to mention very comfortable.  It suited all my needs, everything I wanted was in the hotel or close by.  It was very accessible to the major highways, shopping, restaurants, They do offer you a Continental Breakfast which was very good. You can't beat the price for what they have to offer.  Yes, I recommend this very highly.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r173418203-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>173418203</t>
+  </si>
+  <si>
+    <t>08/21/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r167724521-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>167724521</t>
@@ -931,10 +1246,7 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>Domionna M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r167544374-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r167544374-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>167544374</t>
@@ -949,10 +1261,7 @@
     <t>I believe Microtel is the best affordable, yet quality, that you can get.There service is great as well.</t>
   </si>
   <si>
-    <t>Kim L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r166111031-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r166111031-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>166111031</t>
@@ -964,10 +1273,28 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Tynisha A</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r163305996-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r163501873-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>163501873</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>Poor excuse for a hotel!</t>
+  </si>
+  <si>
+    <t>We went to check in and there was a drug deal going down in the driveway under the awning. I walked into the office after the attendant buzzed me in. The attendant didnt speak good english and it took me 4 times to explain that we wanted one room for that night and two for the next night. While i was attempting to get registered there was more questionable activity in the parking lot. We left without even going to the room because the atmosphere didnt seam safe for my family.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r163495565-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>163495565</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r163305996-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>163305996</t>
@@ -979,10 +1306,7 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>Timothy W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r162020870-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r162020870-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>162020870</t>
@@ -991,10 +1315,7 @@
     <t>05/27/2013</t>
   </si>
   <si>
-    <t>Jeff B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r161461398-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r161461398-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>161461398</t>
@@ -1003,10 +1324,37 @@
     <t>05/21/2013</t>
   </si>
   <si>
-    <t>Trevelyn M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r153965802-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r160722084-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>160722084</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Best Value in the area</t>
+  </si>
+  <si>
+    <t>Best stay in the DFW area for the price !  Everything was as clean as it could be. Our room was  quiet and comfy. The staff was very friendly and helpful. Our free breakfast included choice of bagels, pastries, muffins, Texas shaped waffles, juice, coffee or milk. Our room did not have a built in hair dryer but the desk clerk cheerfully provided one when I asked. There was noin room coffee BUT with the free breakfast starting at 6:30AM  that was no problem. They do not provide shampoo either but we always travel with travel size so no issue there.  Overall it was a great stay and we would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Best stay in the DFW area for the price !  Everything was as clean as it could be. Our room was  quiet and comfy. The staff was very friendly and helpful. Our free breakfast included choice of bagels, pastries, muffins, Texas shaped waffles, juice, coffee or milk. Our room did not have a built in hair dryer but the desk clerk cheerfully provided one when I asked. There was noin room coffee BUT with the free breakfast starting at 6:30AM  that was no problem. They do not provide shampoo either but we always travel with travel size so no issue there.  Overall it was a great stay and we would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r154447496-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>154447496</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r153965802-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>153965802</t>
@@ -1015,13 +1363,7 @@
     <t>03/07/2013</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
-    <t>Bonnie M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r151922226-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r151922226-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>151922226</t>
@@ -1039,10 +1381,7 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>Ben R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r147324143-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r147324143-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>147324143</t>
@@ -1054,10 +1393,34 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>miltarytoy</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r144975519-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r146034202-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>146034202</t>
+  </si>
+  <si>
+    <t>11/23/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r145266281-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>145266281</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>Overall good stay.  Clean room, but a little outdated furniture.  Not the easiest to find off the highway if you are not used to driving around there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r144975519-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>144975519</t>
@@ -1066,13 +1429,7 @@
     <t>11/08/2012</t>
   </si>
   <si>
-    <t>November 2012</t>
-  </si>
-  <si>
-    <t>Stephen C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r143167602-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r143167602-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>143167602</t>
@@ -1084,10 +1441,7 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>MARGOT A</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r142904541-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r142904541-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>142904541</t>
@@ -1096,10 +1450,43 @@
     <t>10/15/2012</t>
   </si>
   <si>
-    <t>DEARAMISH</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r124905734-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r138727973-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>138727973</t>
+  </si>
+  <si>
+    <t>08/28/2012</t>
+  </si>
+  <si>
+    <t>It was .....cheap.</t>
+  </si>
+  <si>
+    <t>I was in town for a concert, so I didn't need a fancy hotel. I used Microtel because it was cheap but figured it would still be decent.There was no clock in the room anywhere.The chair had several stains.The bathroom was dirty and had cracks everywhere. It was the only hotel I've ever stayed at where shampoo didn't automatically come with the room. I had to ask for some at the front desk and they acted like this was completely normal. Nearly every sheet and towel had a long, black hair wrapped up in it. Seeing as how I have short brown hair, they clearly weren't mine.The breakfast the next morning was ok, if you don't mind bare minimal selection.I understand that you get what you pay for, and I didn't pay much. But it still feels like I over paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I was in town for a concert, so I didn't need a fancy hotel. I used Microtel because it was cheap but figured it would still be decent.There was no clock in the room anywhere.The chair had several stains.The bathroom was dirty and had cracks everywhere. It was the only hotel I've ever stayed at where shampoo didn't automatically come with the room. I had to ask for some at the front desk and they acted like this was completely normal. Nearly every sheet and towel had a long, black hair wrapped up in it. Seeing as how I have short brown hair, they clearly weren't mine.The breakfast the next morning was ok, if you don't mind bare minimal selection.I understand that you get what you pay for, and I didn't pay much. But it still feels like I over paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r132692580-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>132692580</t>
+  </si>
+  <si>
+    <t>06/24/2012</t>
+  </si>
+  <si>
+    <t>Very good place to stay</t>
+  </si>
+  <si>
+    <t>Me and my stayed in one of the juizzi suits and it was great. The staff was very freindly. Not to hard of a place to find  and a very good location. When I go back there I will try my hardest to stay there again. Didn't get to eat the breakfest we over sleeped lol. The bed was very comfy and the A/C blew like  champ nice and cold :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r124905734-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>124905734</t>
@@ -1117,10 +1504,7 @@
     <t>February 2012</t>
   </si>
   <si>
-    <t>GreenTechInvestments</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r122322501-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r122322501-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>122322501</t>
@@ -1143,10 +1527,7 @@
 I complained to both the night manager and the morning manager about the noise issues and the morning manager (fat guy) said I do not have to stay there and I can go somewhere else. This is the first time they where rude to me and not the last. I was scheduled to leave on the Fri however my work kept me another couple days and I went on Priceline to add a couple more days. I did not get back to the hotel until about 11pm that night and the fat guy started arguing with me that I did not notify them I was staying that I did not pay for the room. I told him I had made an earlier reservation that day and asked what the issue was. He said I was trying to skip out on paying and I had to pay. I have...I had been using this Microtel for a couple years now when I am in Dallas dealing with property issues. The hotel had been fine until this last time I stayed in Nov-Dec 2011. They cram all the single bed rooms in one end of the building and are not spread out. The problem with this is there are a lot of out of town workers that stay there and make noise until 3-4am most days as well as leave their TVs on loud all night. You cannot get any sleep there.I complained to both the night manager and the morning manager about the noise issues and the morning manager (fat guy) said I do not have to stay there and I can go somewhere else. This is the first time they where rude to me and not the last. I was scheduled to leave on the Fri however my work kept me another couple days and I went on Priceline to add a couple more days. I did not get back to the hotel until about 11pm that night and the fat guy started arguing with me that I did not notify them I was staying that I did not pay for the room. I told him I had made an earlier reservation that day and asked what the issue was. He said I was trying to skip out on paying and I had to pay. I have never had problems with hotels worrying about me skipping out on paying when using Priceline so I payed and stayed another two days. The second day I had to change my schedule again and stay a couple more days and tried to prepay a couple more days and they would not accept it and told me to leave. They said they can refuse service to anybody and called the police. This hotel has lost my business and I will let everybody know that there are better places in the area like the Crossland Extended Stay Hotel up the street. They have small kitchenettes and pretty comfortable for the price. I recommend nobody stay at the Microtel in Mesquite on Sorrento Dr.More</t>
   </si>
   <si>
-    <t>aazaleaa</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r117414724-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r117414724-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>117414724</t>
@@ -1167,10 +1548,43 @@
     <t>I was a little skeptical, getting such a great deal on a hotel. But, all of my expectations were exceeded at this Microtel. The employees at the front counter were very friendly and helpful. The vending machines worked, the breakfast was stocked nicely (just your usual waffles, muffins, bagels, juice), the rooms were clean (small, but very clean), working tv with tons of channels, cold air conditioning, comfortable bed and spotless bathroom. The neighborhood seemed to be fine, it was close to I-30, but without the noise, and just around the corner from Town East Mall, restaurants, etc. I would stay here again in a minute. Highly recommended for couples or small families who are traveling on a budget, but still care about cleanliness and quality of stay.More</t>
   </si>
   <si>
-    <t>SeattleSked</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r66452114-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r102092407-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>102092407</t>
+  </si>
+  <si>
+    <t>03/29/2011</t>
+  </si>
+  <si>
+    <t>dredful</t>
+  </si>
+  <si>
+    <t>The staff was rude I made my reservations payed in advance and the on arival they made us pay $80 extra. Was not helpful to me or my family sas rude to all the guests  that was in the lobby at the same time i was. The beds was hard and there was no blankets on the bed. we asked for more towels and pillows and was denied. Me or my family will not be staying here agean.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r72330650-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>72330650</t>
+  </si>
+  <si>
+    <t>07/25/2010</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>The last Microtel Inn and Suites I stayed in was awefull. So the price was right for my trip to Dallas, I didn't not hold my breath for this one. But that changed when I got there. The person at the front desk was so helpful and courtest. He showed me places to eat and told me to enjoy myself. I really appreciated the folks there.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r66452114-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>66452114</t>
@@ -1188,10 +1602,7 @@
     <t>May 2010</t>
   </si>
   <si>
-    <t>Ashlybrooke</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r36757778-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_At_I_30-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d241652-r36757778-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_I_30-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>36757778</t>
@@ -1711,63 +2122,59 @@
       <c r="A2" t="n">
         <v>38541</v>
       </c>
-      <c r="B2" t="n">
-        <v>168944</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1775,139 +2182,133 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38541</v>
       </c>
-      <c r="B3" t="n">
-        <v>168945</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38541</v>
       </c>
-      <c r="B4" t="n">
-        <v>5658</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
-      </c>
       <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1915,190 +2316,185 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38541</v>
       </c>
-      <c r="B5" t="n">
-        <v>24222</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38541</v>
       </c>
-      <c r="B6" t="n">
-        <v>113432</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>58</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
-      </c>
       <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="n">
         <v>2</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>80</v>
-      </c>
-      <c r="X6" t="s">
-        <v>81</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38541</v>
       </c>
-      <c r="B7" t="n">
-        <v>5027</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>86</v>
       </c>
-      <c r="O7" t="s">
-        <v>60</v>
-      </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
         <v>5</v>
@@ -2116,138 +2512,132 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>87</v>
-      </c>
-      <c r="X7" t="s">
-        <v>88</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38541</v>
       </c>
-      <c r="B8" t="n">
-        <v>46965</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>91</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
         <v>93</v>
       </c>
-      <c r="L8" t="s">
+      <c r="X8" t="s">
         <v>94</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="Y8" t="s">
         <v>95</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
-        <v>96</v>
-      </c>
-      <c r="X8" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38541</v>
       </c>
-      <c r="B9" t="n">
-        <v>27634</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -2256,276 +2646,264 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>105</v>
-      </c>
-      <c r="X9" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>107</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38541</v>
       </c>
-      <c r="B10" t="n">
-        <v>168946</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" t="s">
-        <v>112</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" t="s">
+        <v>104</v>
+      </c>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38541</v>
       </c>
-      <c r="B11" t="n">
-        <v>168947</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K11" t="s">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38541</v>
       </c>
-      <c r="B12" t="n">
-        <v>168948</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38541</v>
       </c>
-      <c r="B13" t="n">
-        <v>168949</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -2534,1067 +2912,1022 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>138</v>
-      </c>
-      <c r="X13" t="s">
-        <v>139</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38541</v>
       </c>
-      <c r="B14" t="n">
-        <v>9365</v>
-      </c>
-      <c r="C14" t="s">
-        <v>141</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
-      </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="O14" t="s">
-        <v>95</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38541</v>
       </c>
-      <c r="B15" t="n">
-        <v>168950</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="O15" t="s">
-        <v>153</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38541</v>
       </c>
-      <c r="B16" t="n">
-        <v>168951</v>
-      </c>
-      <c r="C16" t="s">
-        <v>157</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
       <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
         <v>58</v>
       </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>161</v>
-      </c>
-      <c r="O16" t="s">
-        <v>153</v>
-      </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>162</v>
-      </c>
-      <c r="X16" t="s">
-        <v>163</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38541</v>
       </c>
-      <c r="B17" t="n">
-        <v>168952</v>
-      </c>
-      <c r="C17" t="s">
-        <v>164</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
-      </c>
-      <c r="K17" t="s">
-        <v>168</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>149</v>
+      </c>
+      <c r="X17" t="s">
+        <v>150</v>
+      </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38541</v>
       </c>
-      <c r="B18" t="n">
-        <v>168953</v>
-      </c>
-      <c r="C18" t="s">
-        <v>172</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
-      </c>
-      <c r="K18" t="s">
-        <v>176</v>
-      </c>
-      <c r="L18" t="s">
-        <v>177</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>179</v>
-      </c>
-      <c r="X18" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>181</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38541</v>
       </c>
-      <c r="B19" t="n">
-        <v>168954</v>
-      </c>
-      <c r="C19" t="s">
-        <v>182</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
-      </c>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38541</v>
       </c>
-      <c r="B20" t="n">
-        <v>168955</v>
-      </c>
-      <c r="C20" t="s">
-        <v>187</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>194</v>
-      </c>
-      <c r="X20" t="s">
-        <v>195</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38541</v>
       </c>
-      <c r="B21" t="n">
-        <v>168956</v>
-      </c>
-      <c r="C21" t="s">
-        <v>197</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>175</v>
+      </c>
+      <c r="X21" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38541</v>
       </c>
-      <c r="B22" t="n">
-        <v>168957</v>
-      </c>
-      <c r="C22" t="s">
-        <v>201</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
-      </c>
-      <c r="K22" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
       <c r="L22" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="O22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="X22" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="Y22" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38541</v>
       </c>
-      <c r="B23" t="n">
-        <v>7997</v>
-      </c>
-      <c r="C23" t="s">
-        <v>207</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38541</v>
       </c>
-      <c r="B24" t="n">
-        <v>22655</v>
-      </c>
-      <c r="C24" t="s">
-        <v>214</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s"/>
-      <c r="L24" t="s">
-        <v>58</v>
-      </c>
+      <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>219</v>
-      </c>
-      <c r="X24" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>63</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38541</v>
       </c>
-      <c r="B25" t="n">
-        <v>168958</v>
-      </c>
-      <c r="C25" t="s">
-        <v>221</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>200</v>
+      </c>
+      <c r="X25" t="s">
+        <v>201</v>
+      </c>
       <c r="Y25" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38541</v>
       </c>
-      <c r="B26" t="n">
-        <v>168959</v>
-      </c>
-      <c r="C26" t="s">
-        <v>229</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
-      </c>
-      <c r="K26" t="s">
-        <v>233</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s">
-        <v>236</v>
+        <v>52</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>207</v>
+      </c>
+      <c r="X26" t="s">
+        <v>208</v>
+      </c>
       <c r="Y26" t="s">
-        <v>234</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38541</v>
       </c>
-      <c r="B27" t="n">
-        <v>168960</v>
-      </c>
-      <c r="C27" t="s">
-        <v>237</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
-      </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="K27" t="s">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s">
+        <v>213</v>
+      </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="O27" t="s">
-        <v>95</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
+      <c r="W27" t="s">
+        <v>215</v>
+      </c>
+      <c r="X27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38541</v>
       </c>
-      <c r="B28" t="n">
-        <v>168961</v>
-      </c>
-      <c r="C28" t="s">
-        <v>241</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
-      </c>
-      <c r="K28" t="s"/>
-      <c r="L28" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="K28" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" t="s">
+        <v>222</v>
+      </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>215</v>
+      </c>
+      <c r="X28" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38541</v>
       </c>
-      <c r="B29" t="n">
-        <v>168962</v>
-      </c>
-      <c r="C29" t="s">
-        <v>244</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="J29" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="K29" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="O29" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3603,10 +3936,10 @@
         <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3615,309 +3948,293 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>251</v>
-      </c>
-      <c r="X29" t="s">
-        <v>252</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38541</v>
       </c>
-      <c r="B30" t="n">
-        <v>168963</v>
-      </c>
-      <c r="C30" t="s">
-        <v>254</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="J30" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>237</v>
+      </c>
+      <c r="O30" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>2</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>238</v>
+      </c>
+      <c r="X30" t="s">
+        <v>239</v>
+      </c>
       <c r="Y30" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38541</v>
       </c>
-      <c r="B31" t="n">
-        <v>168964</v>
-      </c>
-      <c r="C31" t="s">
-        <v>260</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
-      </c>
-      <c r="K31" t="s">
-        <v>264</v>
-      </c>
-      <c r="L31" t="s">
-        <v>265</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="O31" t="s">
-        <v>236</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
-      <c r="Y31" t="s">
-        <v>265</v>
-      </c>
+      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38541</v>
       </c>
-      <c r="B32" t="n">
-        <v>35907</v>
-      </c>
-      <c r="C32" t="s">
-        <v>267</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="J32" t="s">
-        <v>270</v>
-      </c>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38541</v>
       </c>
-      <c r="B33" t="n">
-        <v>168965</v>
-      </c>
-      <c r="C33" t="s">
-        <v>272</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="J33" t="s">
-        <v>275</v>
-      </c>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="K33" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" t="s">
+        <v>255</v>
+      </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="O33" t="s">
-        <v>153</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>4</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38541</v>
       </c>
-      <c r="B34" t="n">
-        <v>168966</v>
-      </c>
-      <c r="C34" t="s">
-        <v>276</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="J34" t="s">
-        <v>279</v>
-      </c>
-      <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
+        <v>258</v>
+      </c>
+      <c r="K34" t="s">
+        <v>259</v>
+      </c>
+      <c r="L34" t="s">
+        <v>260</v>
+      </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3930,193 +4247,195 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
+      <c r="W34" t="s">
+        <v>262</v>
+      </c>
+      <c r="X34" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38541</v>
       </c>
-      <c r="B35" t="n">
-        <v>168967</v>
-      </c>
-      <c r="C35" t="s">
-        <v>280</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="J35" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="O35" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
         <v>3</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38541</v>
       </c>
-      <c r="B36" t="n">
-        <v>168968</v>
-      </c>
-      <c r="C36" t="s">
-        <v>285</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="J36" t="s">
-        <v>288</v>
-      </c>
-      <c r="K36" t="s">
-        <v>289</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>290</v>
+        <v>69</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>271</v>
+      </c>
+      <c r="X36" t="s">
+        <v>272</v>
+      </c>
       <c r="Y36" t="s">
-        <v>290</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38541</v>
       </c>
-      <c r="B37" t="n">
-        <v>168969</v>
-      </c>
-      <c r="C37" t="s">
-        <v>291</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="J37" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="O37" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
         <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -4125,139 +4444,122 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38541</v>
       </c>
-      <c r="B38" t="n">
-        <v>21845</v>
-      </c>
-      <c r="C38" t="s">
-        <v>296</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="J38" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="K38" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="L38" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="O38" t="s">
-        <v>95</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>2</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>283</v>
+      </c>
+      <c r="X38" t="s">
+        <v>284</v>
+      </c>
       <c r="Y38" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38541</v>
       </c>
-      <c r="B39" t="n">
-        <v>168970</v>
-      </c>
-      <c r="C39" t="s">
-        <v>303</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="J39" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="K39" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="O39" t="s">
-        <v>153</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4265,310 +4567,322 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38541</v>
       </c>
-      <c r="B40" t="n">
-        <v>4280</v>
-      </c>
-      <c r="C40" t="s">
-        <v>309</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="J40" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
+      <c r="L40" t="s">
+        <v>69</v>
+      </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="O40" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>296</v>
+      </c>
+      <c r="X40" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38541</v>
       </c>
-      <c r="B41" t="n">
-        <v>168971</v>
-      </c>
-      <c r="C41" t="s">
-        <v>314</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="J41" t="s">
-        <v>317</v>
-      </c>
-      <c r="K41" t="s"/>
-      <c r="L41" t="s"/>
+        <v>300</v>
+      </c>
+      <c r="K41" t="s">
+        <v>301</v>
+      </c>
+      <c r="L41" t="s">
+        <v>302</v>
+      </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38541</v>
       </c>
-      <c r="B42" t="n">
-        <v>6542</v>
-      </c>
-      <c r="C42" t="s">
-        <v>319</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="J42" t="s">
-        <v>322</v>
-      </c>
-      <c r="K42" t="s"/>
-      <c r="L42" t="s"/>
+        <v>307</v>
+      </c>
+      <c r="K42" t="s">
+        <v>308</v>
+      </c>
+      <c r="L42" t="s">
+        <v>309</v>
+      </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="O42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
         <v>3</v>
       </c>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38541</v>
       </c>
-      <c r="B43" t="n">
-        <v>3641</v>
-      </c>
-      <c r="C43" t="s">
-        <v>323</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="J43" t="s">
-        <v>326</v>
-      </c>
-      <c r="K43" t="s"/>
-      <c r="L43" t="s"/>
+        <v>314</v>
+      </c>
+      <c r="K43" t="s">
+        <v>315</v>
+      </c>
+      <c r="L43" t="s">
+        <v>316</v>
+      </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
-        <v>3</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38541</v>
       </c>
-      <c r="B44" t="n">
-        <v>168972</v>
-      </c>
-      <c r="C44" t="s">
-        <v>327</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="J44" t="s">
-        <v>330</v>
-      </c>
-      <c r="K44" t="s"/>
-      <c r="L44" t="s"/>
+        <v>319</v>
+      </c>
+      <c r="K44" t="s">
+        <v>320</v>
+      </c>
+      <c r="L44" t="s">
+        <v>321</v>
+      </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="O44" t="s">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R44" t="n">
         <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -4577,108 +4891,97 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38541</v>
       </c>
-      <c r="B45" t="n">
-        <v>9342</v>
-      </c>
-      <c r="C45" t="s">
-        <v>332</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J45" t="s">
-        <v>335</v>
-      </c>
-      <c r="K45" t="s">
-        <v>336</v>
-      </c>
-      <c r="L45" t="s">
-        <v>337</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="O45" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
         <v>2</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
-      <c r="Y45" t="s">
-        <v>337</v>
-      </c>
+      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38541</v>
       </c>
-      <c r="B46" t="n">
-        <v>13144</v>
-      </c>
-      <c r="C46" t="s">
-        <v>339</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="J46" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -4686,285 +4989,280 @@
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="O46" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38541</v>
       </c>
-      <c r="B47" t="n">
-        <v>168973</v>
-      </c>
-      <c r="C47" t="s">
-        <v>344</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="J47" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="K47" t="s"/>
-      <c r="L47" t="s">
-        <v>58</v>
-      </c>
+      <c r="L47" t="s"/>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="O47" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
-      <c r="Y47" t="s">
-        <v>63</v>
-      </c>
+      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38541</v>
       </c>
-      <c r="B48" t="n">
-        <v>19814</v>
-      </c>
-      <c r="C48" t="s">
-        <v>349</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="J48" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
         <v>4</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38541</v>
       </c>
-      <c r="B49" t="n">
-        <v>168974</v>
-      </c>
-      <c r="C49" t="s">
-        <v>354</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="J49" t="s">
-        <v>357</v>
-      </c>
-      <c r="K49" t="s"/>
-      <c r="L49" t="s"/>
+        <v>336</v>
+      </c>
+      <c r="K49" t="s">
+        <v>337</v>
+      </c>
+      <c r="L49" t="s">
+        <v>338</v>
+      </c>
       <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>339</v>
+      </c>
+      <c r="O49" t="s">
+        <v>86</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
         <v>4</v>
       </c>
-      <c r="N49" t="s">
-        <v>353</v>
-      </c>
-      <c r="O49" t="s">
-        <v>60</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>340</v>
+      </c>
+      <c r="X49" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38541</v>
       </c>
-      <c r="B50" t="n">
-        <v>168975</v>
-      </c>
-      <c r="C50" t="s">
-        <v>358</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="J50" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="K50" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
-      <c r="N50" t="s">
-        <v>364</v>
-      </c>
-      <c r="O50" t="s">
-        <v>153</v>
-      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
         <v>2</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4972,275 +5270,2517 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38541</v>
       </c>
-      <c r="B51" t="n">
-        <v>168976</v>
-      </c>
-      <c r="C51" t="s">
-        <v>365</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="J51" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="K51" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="O51" t="s">
-        <v>95</v>
-      </c>
-      <c r="P51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>1</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38541</v>
       </c>
-      <c r="B52" t="n">
-        <v>168977</v>
-      </c>
-      <c r="C52" t="s">
-        <v>373</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="J52" t="s">
-        <v>376</v>
-      </c>
-      <c r="K52" t="s">
-        <v>377</v>
-      </c>
-      <c r="L52" t="s">
-        <v>378</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
       <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>339</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
         <v>4</v>
       </c>
-      <c r="N52" t="s">
-        <v>379</v>
-      </c>
-      <c r="O52" t="s">
-        <v>153</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
-      <c r="Y52" t="s">
-        <v>380</v>
-      </c>
+      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>38541</v>
       </c>
-      <c r="B53" t="n">
-        <v>168978</v>
-      </c>
-      <c r="C53" t="s">
-        <v>381</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="J53" t="s">
-        <v>384</v>
-      </c>
-      <c r="K53" t="s">
-        <v>385</v>
-      </c>
-      <c r="L53" t="s">
-        <v>386</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="O53" t="s">
-        <v>153</v>
-      </c>
-      <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
-      <c r="Y53" t="s">
-        <v>386</v>
-      </c>
+      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>38541</v>
       </c>
-      <c r="B54" t="n">
-        <v>168979</v>
-      </c>
-      <c r="C54" t="s">
-        <v>388</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="J54" t="s">
-        <v>391</v>
-      </c>
-      <c r="K54" t="s">
-        <v>392</v>
-      </c>
-      <c r="L54" t="s">
-        <v>393</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="O54" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q54" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
-      <c r="Y54" t="s">
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>365</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>366</v>
+      </c>
+      <c r="J55" t="s">
+        <v>367</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>364</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>368</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>369</v>
+      </c>
+      <c r="J56" t="s">
+        <v>370</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>364</v>
+      </c>
+      <c r="O56" t="s">
+        <v>58</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>371</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>372</v>
+      </c>
+      <c r="J57" t="s">
+        <v>373</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>374</v>
+      </c>
+      <c r="O57" t="s">
+        <v>86</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>375</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>376</v>
+      </c>
+      <c r="J58" t="s">
+        <v>377</v>
+      </c>
+      <c r="K58" t="s">
+        <v>378</v>
+      </c>
+      <c r="L58" t="s">
+        <v>379</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>380</v>
+      </c>
+      <c r="O58" t="s">
+        <v>58</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>381</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>382</v>
+      </c>
+      <c r="J59" t="s">
+        <v>383</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>380</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>384</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>385</v>
+      </c>
+      <c r="J60" t="s">
+        <v>386</v>
+      </c>
+      <c r="K60" t="s">
+        <v>387</v>
+      </c>
+      <c r="L60" t="s">
+        <v>388</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>380</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>389</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>390</v>
+      </c>
+      <c r="J61" t="s">
+        <v>391</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>392</v>
+      </c>
+      <c r="O61" t="s">
+        <v>86</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
         <v>393</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>394</v>
+      </c>
+      <c r="J62" t="s">
+        <v>395</v>
+      </c>
+      <c r="K62" t="s">
+        <v>396</v>
+      </c>
+      <c r="L62" t="s">
+        <v>397</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>398</v>
+      </c>
+      <c r="O62" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>399</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>400</v>
+      </c>
+      <c r="J63" t="s">
+        <v>401</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>392</v>
+      </c>
+      <c r="O63" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>402</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>403</v>
+      </c>
+      <c r="J64" t="s">
+        <v>404</v>
+      </c>
+      <c r="K64" t="s">
+        <v>405</v>
+      </c>
+      <c r="L64" t="s">
+        <v>406</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>407</v>
+      </c>
+      <c r="O64" t="s">
+        <v>86</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>408</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>409</v>
+      </c>
+      <c r="J65" t="s">
+        <v>410</v>
+      </c>
+      <c r="K65" t="s">
+        <v>411</v>
+      </c>
+      <c r="L65" t="s">
+        <v>412</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>407</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>413</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>414</v>
+      </c>
+      <c r="J66" t="s">
+        <v>415</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>416</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>417</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>418</v>
+      </c>
+      <c r="J67" t="s">
+        <v>419</v>
+      </c>
+      <c r="K67" t="s">
+        <v>420</v>
+      </c>
+      <c r="L67" t="s">
+        <v>421</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>422</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>423</v>
+      </c>
+      <c r="J68" t="s">
+        <v>419</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>416</v>
+      </c>
+      <c r="O68" t="s">
+        <v>58</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>424</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>425</v>
+      </c>
+      <c r="J69" t="s">
+        <v>426</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>427</v>
+      </c>
+      <c r="O69" t="s">
+        <v>65</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>428</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>429</v>
+      </c>
+      <c r="J70" t="s">
+        <v>430</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>427</v>
+      </c>
+      <c r="O70" t="s">
+        <v>86</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>431</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>432</v>
+      </c>
+      <c r="J71" t="s">
+        <v>433</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>427</v>
+      </c>
+      <c r="O71" t="s">
+        <v>65</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>434</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>435</v>
+      </c>
+      <c r="J72" t="s">
+        <v>436</v>
+      </c>
+      <c r="K72" t="s">
+        <v>437</v>
+      </c>
+      <c r="L72" t="s">
+        <v>438</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>427</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>440</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>441</v>
+      </c>
+      <c r="J73" t="s">
+        <v>442</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>443</v>
+      </c>
+      <c r="O73" t="s">
+        <v>58</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>444</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>445</v>
+      </c>
+      <c r="J74" t="s">
+        <v>446</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>443</v>
+      </c>
+      <c r="O74" t="s">
+        <v>86</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>447</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>448</v>
+      </c>
+      <c r="J75" t="s">
+        <v>449</v>
+      </c>
+      <c r="K75" t="s">
+        <v>450</v>
+      </c>
+      <c r="L75" t="s">
+        <v>451</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>452</v>
+      </c>
+      <c r="O75" t="s">
+        <v>311</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>453</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>454</v>
+      </c>
+      <c r="J76" t="s">
+        <v>455</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>456</v>
+      </c>
+      <c r="O76" t="s">
+        <v>86</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>457</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>458</v>
+      </c>
+      <c r="J77" t="s">
+        <v>459</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>460</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>461</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>462</v>
+      </c>
+      <c r="J78" t="s">
+        <v>463</v>
+      </c>
+      <c r="K78" t="s">
+        <v>464</v>
+      </c>
+      <c r="L78" t="s">
+        <v>465</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>460</v>
+      </c>
+      <c r="O78" t="s">
+        <v>58</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>466</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>467</v>
+      </c>
+      <c r="J79" t="s">
+        <v>468</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s">
+        <v>69</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>460</v>
+      </c>
+      <c r="O79" t="s">
+        <v>311</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>469</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>470</v>
+      </c>
+      <c r="J80" t="s">
+        <v>471</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>472</v>
+      </c>
+      <c r="O80" t="s">
+        <v>58</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>473</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>474</v>
+      </c>
+      <c r="J81" t="s">
+        <v>475</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>472</v>
+      </c>
+      <c r="O81" t="s">
+        <v>58</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>476</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>477</v>
+      </c>
+      <c r="J82" t="s">
+        <v>478</v>
+      </c>
+      <c r="K82" t="s">
+        <v>479</v>
+      </c>
+      <c r="L82" t="s">
+        <v>480</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>481</v>
+      </c>
+      <c r="O82" t="s">
+        <v>65</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>483</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>484</v>
+      </c>
+      <c r="J83" t="s">
+        <v>485</v>
+      </c>
+      <c r="K83" t="s">
+        <v>486</v>
+      </c>
+      <c r="L83" t="s">
+        <v>487</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>488</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>489</v>
+      </c>
+      <c r="J84" t="s">
+        <v>490</v>
+      </c>
+      <c r="K84" t="s">
+        <v>491</v>
+      </c>
+      <c r="L84" t="s">
+        <v>492</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>493</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>494</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>495</v>
+      </c>
+      <c r="J85" t="s">
+        <v>496</v>
+      </c>
+      <c r="K85" t="s">
+        <v>497</v>
+      </c>
+      <c r="L85" t="s">
+        <v>498</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>499</v>
+      </c>
+      <c r="O85" t="s">
+        <v>86</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>501</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>502</v>
+      </c>
+      <c r="J86" t="s">
+        <v>503</v>
+      </c>
+      <c r="K86" t="s">
+        <v>504</v>
+      </c>
+      <c r="L86" t="s">
+        <v>505</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>506</v>
+      </c>
+      <c r="O86" t="s">
+        <v>52</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>508</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>509</v>
+      </c>
+      <c r="J87" t="s">
+        <v>510</v>
+      </c>
+      <c r="K87" t="s">
+        <v>511</v>
+      </c>
+      <c r="L87" t="s">
+        <v>512</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>513</v>
+      </c>
+      <c r="O87" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>514</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>515</v>
+      </c>
+      <c r="J88" t="s">
+        <v>516</v>
+      </c>
+      <c r="K88" t="s">
+        <v>517</v>
+      </c>
+      <c r="L88" t="s">
+        <v>518</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>519</v>
+      </c>
+      <c r="O88" t="s">
+        <v>311</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>520</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>521</v>
+      </c>
+      <c r="J89" t="s">
+        <v>522</v>
+      </c>
+      <c r="K89" t="s">
+        <v>523</v>
+      </c>
+      <c r="L89" t="s">
+        <v>524</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>525</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>526</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>527</v>
+      </c>
+      <c r="J90" t="s">
+        <v>528</v>
+      </c>
+      <c r="K90" t="s">
+        <v>529</v>
+      </c>
+      <c r="L90" t="s">
+        <v>530</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>531</v>
+      </c>
+      <c r="O90" t="s">
+        <v>52</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
